--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782BA63-83B9-408C-80C8-7F2CC74DFAA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA450B55-8070-4A01-BFE0-B68F47F1824E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,8 @@
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
     <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
-    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$16</definedName>
-    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$17</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$20</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$21</definedName>
     <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
     <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
     <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
@@ -73,7 +73,7 @@
     <author>Javad Evazzadeh</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C4FC50AC-CFBA-4AC7-AB21-28DB7D6BCBB3}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{C4FC50AC-CFBA-4AC7-AB21-28DB7D6BCBB3}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{225D4D8D-7B54-479E-8CEC-45A0AC103571}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Post-money valuation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
       <text>
         <r>
           <rPr>
@@ -115,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="200">
   <si>
     <t>#</t>
   </si>
@@ -516,9 +528,6 @@
     <t>درصد EBITDA</t>
   </si>
   <si>
-    <t>جریان نقدی آزاد</t>
-  </si>
-  <si>
     <t>Discount Rate</t>
   </si>
   <si>
@@ -672,9 +681,6 @@
     <t>نسبت ارزش به درآمد</t>
   </si>
   <si>
-    <t>میزان بازده داخلی</t>
-  </si>
-  <si>
     <t>ارزش خالص فعلی کل سرمایه‌گذاری</t>
   </si>
   <si>
@@ -685,6 +691,42 @@
   </si>
   <si>
     <t>میزان بازده داخلی + سرمایه ثابت</t>
+  </si>
+  <si>
+    <t>درآمد دلاری</t>
+  </si>
+  <si>
+    <t>ارزش پیش از تزریق سرمایه به دلار</t>
+  </si>
+  <si>
+    <t>مبلغ موردنیاز برای سرمایه‌گذاری</t>
+  </si>
+  <si>
+    <t>رشد درآمد نسبت به سال گذشته</t>
+  </si>
+  <si>
+    <t>دوره بازگشت سرمایه</t>
+  </si>
+  <si>
+    <t>مجموع درآمد تجمعی</t>
+  </si>
+  <si>
+    <t>مجموع هزینه سرمایه ثابت تجمعی</t>
+  </si>
+  <si>
+    <t>مجموع هزینه سرمایه در گردش</t>
+  </si>
+  <si>
+    <t>جریان نقدی آزاد (سود و زیان)</t>
+  </si>
+  <si>
+    <t>سود و زیان تجمیعی</t>
+  </si>
+  <si>
+    <t>میزان بازده داخلی (نرخ داخلی بازگشت سرمایه)</t>
+  </si>
+  <si>
+    <t>جمع هزینه‌ها</t>
   </si>
 </sst>
 </file>
@@ -910,7 +952,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1040,23 +1082,20 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1065,7 +1104,209 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="210">
+  <dxfs count="211">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3367,11 +3608,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3401,11 +3638,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3431,15 +3664,67 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3469,237 +3754,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -4852,7 +4907,7 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1104000000</c:v>
+                  <c:v>2208000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>210000000</c:v>
@@ -4861,16 +4916,16 @@
                   <c:v>970100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000000</c:v>
+                  <c:v>540000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>210000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248380000</c:v>
+                  <c:v>224180000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>334248000</c:v>
+                  <c:v>436228000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4941,7 +4996,7 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2400000000</c:v>
+                  <c:v>1344000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>210000000</c:v>
@@ -4956,10 +5011,10 @@
                   <c:v>420000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>758120000</c:v>
+                  <c:v>791120000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1029720000</c:v>
+                  <c:v>927420000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,7 +5552,7 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3504000000</c:v>
+                  <c:v>3552000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>420000000</c:v>
@@ -5506,16 +5561,16 @@
                   <c:v>5929180000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2150000000</c:v>
+                  <c:v>2090000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>630000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006500000</c:v>
+                  <c:v>1015300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1363968000</c:v>
+                  <c:v>1363648000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5778,10 +5833,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1314000000</c:v>
+                  <c:v>2418000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2610000000</c:v>
+                  <c:v>1554000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,10 +5952,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2362728000</c:v>
+                  <c:v>2380508000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8716920000</c:v>
+                  <c:v>8647620000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,10 +6370,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3676728000</c:v>
+                  <c:v>4798508000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11326920000</c:v>
+                  <c:v>10201620000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8683,20 +8738,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208" totalsRowDxfId="207">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="205">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="207" totalsRowDxfId="206">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="204" totalsRowDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="202" totalsRowDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="200" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="199" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="198" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="201" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="200" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="199" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="197" totalsRowDxfId="196" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="198" totalsRowDxfId="197" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8705,51 +8760,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8758,17 +8813,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="83" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="94" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="93">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="92">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="91">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8777,33 +8832,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="88">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="74">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="85">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="84">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="83">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="71">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="82">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="81">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="69">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="80">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="68">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="79">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8812,92 +8867,93 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:I10" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J12" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:J12" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="76">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="62">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="73">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="61">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="72">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="71">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8906,27 +8962,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195">
   <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="193"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="192"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="190" totalsRowDxfId="189">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="181">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="186" totalsRowDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="182">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8935,31 +8991,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="178">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="179">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="172">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="173">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="168">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="170"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="169">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8968,34 +9024,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166" totalsRowDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="165" totalsRowDxfId="164">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="154"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="152" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="151">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="155"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="153" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="152">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="150">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="151">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="149">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="150">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9004,16 +9060,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="148" dataDxfId="147" totalsRowDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="149" dataDxfId="148" totalsRowDxfId="147">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="9">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="145" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9022,16 +9078,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="4">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="138" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9342,7 +9398,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -9392,19 +9448,19 @@
       </c>
       <c r="D2" s="19">
         <f>SUM(tbl_servers[1400])</f>
-        <v>1104000000</v>
+        <v>2208000000</v>
       </c>
       <c r="E2" s="19">
         <f>SUM(tbl_servers[1401])</f>
-        <v>2400000000</v>
+        <v>1344000000</v>
       </c>
       <c r="F2" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>3504000000</v>
+        <v>3552000000</v>
       </c>
       <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.2335432022932023</v>
+        <v>0.23679797932390975</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -9432,7 +9488,7 @@
       </c>
       <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>2.7993192055692059E-2</v>
+        <v>2.7999761068705546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -9460,7 +9516,7 @@
       </c>
       <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.39518255826849574</v>
+        <v>0.39527529365082748</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -9476,7 +9532,7 @@
       </c>
       <c r="D5" s="19">
         <f>SUM(tbl_marketing[1400])</f>
-        <v>600000000</v>
+        <v>540000000</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(tbl_marketing[1401])</f>
@@ -9484,11 +9540,11 @@
       </c>
       <c r="F5" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2150000000</v>
+        <v>2090000000</v>
       </c>
       <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.14329848314223315</v>
+        <v>0.1393321443657014</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -9516,7 +9572,7 @@
       </c>
       <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>4.1989788083538079E-2</v>
+        <v>4.1999641603058323E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -9532,19 +9588,19 @@
       </c>
       <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
-        <v>248380000</v>
+        <v>224180000</v>
       </c>
       <c r="E7" s="19">
         <f>SUM(tbl_office[1401])</f>
-        <v>758120000</v>
+        <v>791120000</v>
       </c>
       <c r="F7" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1006500000</v>
+        <v>1015300000</v>
       </c>
       <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>6.7083685247747743E-2</v>
+        <v>6.7686089078706532E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -9560,15 +9616,15 @@
       </c>
       <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
-        <v>334248000</v>
+        <v>436228000</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>1029720000</v>
+        <v>927420000</v>
       </c>
       <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1363968000</v>
+        <v>1363648000</v>
       </c>
       <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
@@ -9581,15 +9637,15 @@
       </c>
       <c r="D9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1400])</f>
-        <v>3676728000</v>
+        <v>4798508000</v>
       </c>
       <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>11326920000</v>
+        <v>10201620000</v>
       </c>
       <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>15003648000</v>
+        <v>15000128000</v>
       </c>
       <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
@@ -9622,15 +9678,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="31">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B13)</f>
-        <v>1314000000</v>
+        <v>2418000000</v>
       </c>
       <c r="E13" s="31">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B13)</f>
-        <v>2610000000</v>
+        <v>1554000000</v>
       </c>
       <c r="F13" s="32">
         <f>SUM(D13:E13)</f>
-        <v>3924000000</v>
+        <v>3972000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -9641,15 +9697,15 @@
       <c r="C14" s="28"/>
       <c r="D14" s="33">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B14)</f>
-        <v>2362728000</v>
+        <v>2380508000</v>
       </c>
       <c r="E14" s="33">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
-        <v>8716920000</v>
+        <v>8647620000</v>
       </c>
       <c r="F14" s="34">
         <f>SUM(D14:E14)</f>
-        <v>11079648000</v>
+        <v>11028128000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -9770,7 +9826,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -9828,10 +9884,10 @@
         <v>800</v>
       </c>
       <c r="E2" s="4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="4">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="G2" s="4">
         <v>5000</v>
@@ -9905,11 +9961,11 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
@@ -10028,11 +10084,11 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="5"/>
-        <v>36312000</v>
+        <v>45390000</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>75650000</v>
+        <v>121040000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="5"/>
@@ -10069,11 +10125,11 @@
       </c>
       <c r="E8" s="16">
         <f t="shared" si="6"/>
-        <v>108936000</v>
+        <v>136170000</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="6"/>
-        <v>226950000</v>
+        <v>363120000</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="6"/>
@@ -10106,22 +10162,25 @@
   <sheetPr>
     <tabColor rgb="FFC80A5A"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="56"/>
-    <col min="2" max="2" width="32.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="25.7109375" style="56" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="56"/>
+    <col min="10" max="10" width="23.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="56" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="56" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="0" style="56" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -10129,7 +10188,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>14</v>
@@ -10149,17 +10208,20 @@
       <c r="I1" s="57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="56">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>177</v>
       </c>
       <c r="D2" s="58">
         <v>1</v>
@@ -10179,8 +10241,9 @@
       <c r="I2" s="58">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -10193,7 +10256,7 @@
       </c>
       <c r="D3" s="58">
         <f>'پیش‌بینی درآمد'!F2</f>
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E3" s="58">
         <f>'پیش‌بینی درآمد'!J2</f>
@@ -10201,22 +10264,23 @@
       </c>
       <c r="F3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="G3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
-        <v>250000</v>
+        <v>202500</v>
       </c>
       <c r="H3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
-        <v>625000</v>
+        <v>455625</v>
       </c>
       <c r="I3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
-        <v>1562500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1025156.25</v>
+      </c>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -10229,7 +10293,7 @@
       </c>
       <c r="D4" s="62">
         <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
-        <v>453900000</v>
+        <v>617304000</v>
       </c>
       <c r="E4" s="62">
         <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
@@ -10237,230 +10301,319 @@
       </c>
       <c r="F4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr) *(1+s_costsGrowthYOY)</f>
-        <v>22127625000</v>
+        <v>21446775000</v>
       </c>
       <c r="G4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>71914781250</v>
+        <v>67557341249.999992</v>
       </c>
       <c r="H4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>233723039062.5</v>
+        <v>212805624937.49994</v>
       </c>
       <c r="I4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>759599876953.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>670337718553.12476</v>
+      </c>
+      <c r="J4" s="59">
+        <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
+        <v>979573263740.62476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="77">
+        <f>D4/d_toman2dollar</f>
+        <v>30865.200000000001</v>
+      </c>
+      <c r="E5" s="77">
+        <f>E4/d_toman2dollar</f>
+        <v>340425</v>
+      </c>
+      <c r="F5" s="77">
+        <f>F4/d_toman2dollar</f>
+        <v>1072338.75</v>
+      </c>
+      <c r="G5" s="77">
+        <f>G4/d_toman2dollar</f>
+        <v>3377867.0624999995</v>
+      </c>
+      <c r="H5" s="77">
+        <f>H4/d_toman2dollar</f>
+        <v>10640281.246874997</v>
+      </c>
+      <c r="I5" s="77">
+        <f>I4/d_toman2dollar</f>
+        <v>33516885.927656237</v>
+      </c>
+      <c r="J5" s="59">
+        <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
+        <v>48978663.187031232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
+        <f>ROW(A5)</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="60">
+        <f>E5/D5</f>
+        <v>11.029411764705882</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" ref="F6:I6" si="0">F5/E5</f>
+        <v>3.15</v>
+      </c>
+      <c r="G6" s="60">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999995</v>
+      </c>
+      <c r="H6" s="60">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999995</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999995</v>
+      </c>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B7" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="62">
-        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>1314000000</v>
-      </c>
-      <c r="E6" s="62">
-        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>2610000000</v>
-      </c>
-      <c r="F6" s="62">
-        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>3132000000</v>
-      </c>
-      <c r="G6" s="62">
-        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>3758400000</v>
-      </c>
-      <c r="H6" s="62">
-        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>4510080000</v>
-      </c>
-      <c r="I6" s="62">
-        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>5412096000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <f t="shared" ref="A7:A10" si="0">ROW(A6)</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>129</v>
       </c>
       <c r="D7" s="62">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>2362728000</v>
+        <v>2418000000</v>
       </c>
       <c r="E7" s="62">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>8716920000</v>
+        <v>1554000000</v>
       </c>
       <c r="F7" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>1864800000</v>
+      </c>
+      <c r="G7" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>2237760000</v>
+      </c>
+      <c r="H7" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>2685312000</v>
+      </c>
+      <c r="I7" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>3222374400</v>
+      </c>
+      <c r="J7" s="62">
+        <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
+        <v>13982246400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <f t="shared" ref="A8:A11" si="1">ROW(A7)</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="62">
+        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>2380508000</v>
+      </c>
+      <c r="E8" s="62">
+        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>8647620000</v>
+      </c>
+      <c r="F8" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
-        <v>11331996000</v>
-      </c>
-      <c r="G7" s="62">
+        <v>12106668000</v>
+      </c>
+      <c r="G8" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
-        <v>14731594800</v>
-      </c>
-      <c r="H7" s="62">
+        <v>16949335199.999998</v>
+      </c>
+      <c r="H8" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
-        <v>19151073240</v>
-      </c>
-      <c r="I7" s="62">
+        <v>23729069279.999996</v>
+      </c>
+      <c r="I8" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
-        <v>24896395212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="56" t="s">
+        <v>33220696991.999992</v>
+      </c>
+      <c r="J8" s="62">
+        <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
+        <v>97033897472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <f>ROW(A8)</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="62">
-        <f t="shared" ref="D8:I8" si="1">D4-D7</f>
-        <v>-1908828000</v>
-      </c>
-      <c r="E8" s="62">
+      <c r="D9" s="62">
+        <f>D4-D8</f>
+        <v>-1763204000</v>
+      </c>
+      <c r="E9" s="62">
+        <f>E4-E8</f>
+        <v>-1839120000</v>
+      </c>
+      <c r="F9" s="62">
+        <f>F4-F8</f>
+        <v>9340107000</v>
+      </c>
+      <c r="G9" s="62">
+        <f>G4-G8</f>
+        <v>50608006049.999992</v>
+      </c>
+      <c r="H9" s="62">
+        <f>H4-H8</f>
+        <v>189076555657.49994</v>
+      </c>
+      <c r="I9" s="62">
+        <f>I4-I8</f>
+        <v>637117021561.12476</v>
+      </c>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
         <f t="shared" si="1"/>
-        <v>-1908420000</v>
-      </c>
-      <c r="F8" s="62">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="60">
+        <f>D9/D4</f>
+        <v>-2.8562977074504619</v>
+      </c>
+      <c r="E10" s="60">
+        <f>E9/E4</f>
+        <v>-0.27012117206433134</v>
+      </c>
+      <c r="F10" s="60">
+        <f>F9/F4</f>
+        <v>0.43550170130474164</v>
+      </c>
+      <c r="G10" s="60">
+        <f>G9/G4</f>
+        <v>0.74911186724655177</v>
+      </c>
+      <c r="H10" s="60">
+        <f>H9/H4</f>
+        <v>0.88849416322068964</v>
+      </c>
+      <c r="I10" s="60">
+        <f>I9/I4</f>
+        <v>0.95044185032030648</v>
+      </c>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
         <f t="shared" si="1"/>
-        <v>10795629000</v>
-      </c>
-      <c r="G8" s="62">
-        <f t="shared" si="1"/>
-        <v>57183186450</v>
-      </c>
-      <c r="H8" s="62">
-        <f t="shared" si="1"/>
-        <v>214571965822.5</v>
-      </c>
-      <c r="I8" s="62">
-        <f t="shared" si="1"/>
-        <v>734703481741.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="60">
-        <f t="shared" ref="D9:I9" si="2">D8/D4</f>
-        <v>-4.205393258426966</v>
-      </c>
-      <c r="E9" s="60">
-        <f t="shared" si="2"/>
-        <v>-0.28029962546816478</v>
-      </c>
-      <c r="F9" s="60">
-        <f t="shared" si="2"/>
-        <v>0.48788014981273409</v>
-      </c>
-      <c r="G9" s="60">
-        <f t="shared" si="2"/>
-        <v>0.79515205992509363</v>
-      </c>
-      <c r="H9" s="60">
-        <f t="shared" si="2"/>
-        <v>0.91806082397003741</v>
-      </c>
-      <c r="I9" s="60">
-        <f t="shared" si="2"/>
-        <v>0.96722432958801496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="62">
-        <f>D8-D6</f>
-        <v>-3222828000</v>
-      </c>
-      <c r="E10" s="62">
-        <f t="shared" ref="E10:I10" si="3">E8-E6</f>
-        <v>-4518420000</v>
-      </c>
-      <c r="F10" s="62">
-        <f t="shared" si="3"/>
-        <v>7663629000</v>
-      </c>
-      <c r="G10" s="62">
-        <f t="shared" si="3"/>
-        <v>53424786450</v>
-      </c>
-      <c r="H10" s="62">
-        <f t="shared" si="3"/>
-        <v>210061885822.5</v>
-      </c>
-      <c r="I10" s="62">
-        <f t="shared" si="3"/>
-        <v>729291385741.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="62">
+        <f>D9-D7</f>
+        <v>-4181204000</v>
+      </c>
+      <c r="E11" s="62">
+        <f>E9-E7</f>
+        <v>-3393120000</v>
+      </c>
+      <c r="F11" s="62">
+        <f>F9-F7</f>
+        <v>7475307000</v>
+      </c>
+      <c r="G11" s="62">
+        <f>G9-G7</f>
+        <v>48370246049.999992</v>
+      </c>
+      <c r="H11" s="62">
+        <f>H9-H7</f>
+        <v>186391243657.49994</v>
+      </c>
+      <c r="I11" s="62">
+        <f>I9-I7</f>
+        <v>633894647161.12476</v>
+      </c>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <f>ROW(A11)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="62">
+        <f>SUM($D$11:D11)</f>
+        <v>-4181204000</v>
+      </c>
+      <c r="E12" s="62">
+        <f>SUM($D$11:E11)</f>
+        <v>-7574324000</v>
+      </c>
+      <c r="F12" s="62">
+        <f>SUM($D$11:F11)</f>
+        <v>-99017000</v>
+      </c>
+      <c r="G12" s="62">
+        <f>SUM($D$11:G11)</f>
+        <v>48271229049.999992</v>
+      </c>
+      <c r="H12" s="62">
+        <f>SUM($D$11:H11)</f>
+        <v>234662472707.49994</v>
+      </c>
+      <c r="I12" s="62">
+        <f>SUM($D$11:I11)</f>
+        <v>868557119868.62476</v>
+      </c>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -10468,277 +10621,511 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="61">
-        <v>0.3</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="62">
+        <f>ROUND(SUM(tbl_sumary[[1400]:[1401]]),-7 )</f>
+        <v>15000000000</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="62">
-        <f t="shared" ref="D18:I18" si="4">D10/(1+v_DiscountRate)^D2</f>
-        <v>-2479098461.5384617</v>
-      </c>
-      <c r="E18" s="62">
-        <f t="shared" si="4"/>
-        <v>-2673621301.7751474</v>
-      </c>
-      <c r="F18" s="62">
-        <f t="shared" si="4"/>
-        <v>3488224396.9048696</v>
-      </c>
-      <c r="G18" s="62">
-        <f t="shared" si="4"/>
-        <v>18705502766.00959</v>
-      </c>
-      <c r="H18" s="62">
-        <f t="shared" si="4"/>
-        <v>56575773263.298782</v>
-      </c>
-      <c r="I18" s="62">
-        <f t="shared" si="4"/>
-        <v>151091826036.85474</v>
-      </c>
-    </row>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="62">
-        <f t="shared" ref="D19:I19" si="5">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
-        <v>698307692.30769229</v>
-      </c>
-      <c r="E19" s="62">
-        <f t="shared" si="5"/>
-        <v>8057396449.7041416</v>
-      </c>
-      <c r="F19" s="62">
-        <f t="shared" si="5"/>
-        <v>20143491124.260349</v>
-      </c>
-      <c r="G19" s="62">
-        <f t="shared" si="5"/>
-        <v>50358727810.650879</v>
-      </c>
-      <c r="H19" s="62">
-        <f t="shared" si="5"/>
-        <v>125896819526.62718</v>
-      </c>
-      <c r="I19" s="62">
-        <f t="shared" si="5"/>
-        <v>314742048816.56793</v>
-      </c>
+      <c r="B19" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="62" t="str">
-        <f>IF(SUM($D$18:D18) + D19 &gt; 0, SUM($D$18:D18) + D19, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="E20" s="62">
-        <f>IF(SUM($D$18:E18) + E19 &gt; 0, SUM($D$18:E18) + E19, "-")</f>
-        <v>2904676686.3905325</v>
-      </c>
-      <c r="F20" s="62">
-        <f>IF(SUM($D$18:F18) + F19 &gt; 0, SUM($D$18:F18) + F19, "-")</f>
-        <v>18478995757.851608</v>
-      </c>
-      <c r="G20" s="62">
-        <f>IF(SUM($D$18:G18) + G19 &gt; 0, SUM($D$18:G18) + G19, "-")</f>
-        <v>67399735210.251732</v>
-      </c>
-      <c r="H20" s="62">
-        <f>IF(SUM($D$18:H18) + H19 &gt; 0, SUM($D$18:H18) + H19, "-")</f>
-        <v>199513600189.52679</v>
-      </c>
-      <c r="I20" s="62">
-        <f>IF(SUM($D$18:I18) + I19 &gt; 0, SUM($D$18:I18) + I19, "-")</f>
-        <v>539450655516.32227</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="C22" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="62">
+        <f>D11/(1+v_DiscountRate)^D2</f>
+        <v>-3216310769.2307692</v>
+      </c>
+      <c r="E22" s="62">
+        <f>E11/(1+v_DiscountRate)^E2</f>
+        <v>-2007763313.6094673</v>
+      </c>
+      <c r="F22" s="62">
+        <f>F11/(1+v_DiscountRate)^F2</f>
+        <v>3402506599.9089661</v>
+      </c>
+      <c r="G22" s="62">
+        <f>G11/(1+v_DiscountRate)^G2</f>
+        <v>16935767672.700529</v>
+      </c>
+      <c r="H22" s="62">
+        <f>H11/(1+v_DiscountRate)^H2</f>
+        <v>50200581119.897194</v>
+      </c>
+      <c r="I22" s="62">
+        <f>I11/(1+v_DiscountRate)^I2</f>
+        <v>131327891192.94435</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="D23" s="62">
+        <f t="shared" ref="D23:I23" si="2">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <v>949698461.53846145</v>
+      </c>
+      <c r="E23" s="62">
+        <f t="shared" si="2"/>
+        <v>8057396449.7041416</v>
+      </c>
+      <c r="F23" s="62">
+        <f t="shared" si="2"/>
+        <v>19523691397.360031</v>
+      </c>
+      <c r="G23" s="62">
+        <f t="shared" si="2"/>
+        <v>47307406078.218536</v>
+      </c>
+      <c r="H23" s="62">
+        <f t="shared" si="2"/>
+        <v>114629483958.76027</v>
+      </c>
+      <c r="I23" s="62">
+        <f t="shared" si="2"/>
+        <v>277756057284.68829</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="56" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="60" t="str">
-        <f>IFERROR(IRR($D$8:D8), "-")</f>
+        <v>174</v>
+      </c>
+      <c r="D24" s="62" t="str">
+        <f>IF(SUM($D$22:D22) + D23 &gt; 0, SUM($D$22:D22) + D23, "-")</f>
         <v>-</v>
       </c>
-      <c r="E24" s="60" t="str">
-        <f>IFERROR(IRR($D$8:E8), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F24" s="60">
-        <f>IFERROR(IRR($D$8:F8), "-")</f>
-        <v>0.93023552825244327</v>
-      </c>
-      <c r="G24" s="60">
-        <f>IFERROR(IRR($D$8:G8), "-")</f>
-        <v>2.3525365145055765</v>
-      </c>
-      <c r="H24" s="60">
-        <f>IFERROR(IRR($D$8:H8), "-")</f>
-        <v>3.0119255778421667</v>
-      </c>
-      <c r="I24" s="60">
-        <f>IFERROR(IRR($D$8:I8), "-")</f>
-        <v>3.3434713969101528</v>
+      <c r="E24" s="62">
+        <f>IF(SUM($D$22:E22) + E23 &gt; 0, SUM($D$22:E22) + E23, "-")</f>
+        <v>2833322366.863905</v>
+      </c>
+      <c r="F24" s="62">
+        <f>IF(SUM($D$22:F22) + F23 &gt; 0, SUM($D$22:F22) + F23, "-")</f>
+        <v>17702123914.428761</v>
+      </c>
+      <c r="G24" s="62">
+        <f>IF(SUM($D$22:G22) + G23 &gt; 0, SUM($D$22:G22) + G23, "-")</f>
+        <v>62421606267.987793</v>
+      </c>
+      <c r="H24" s="62">
+        <f>IF(SUM($D$22:H22) + H23 &gt; 0, SUM($D$22:H22) + H23, "-")</f>
+        <v>179944265268.42673</v>
+      </c>
+      <c r="I24" s="62">
+        <f>IF(SUM($D$22:I22) + I23 &gt; 0, SUM($D$22:I22) + I23, "-")</f>
+        <v>474398729787.29907</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="D25" s="77" t="str">
+        <f>IFERROR(D24/d_toman2dollar, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E25" s="77">
+        <f>IFERROR(E24/d_toman2dollar, "-")</f>
+        <v>141666.11834319524</v>
+      </c>
+      <c r="F25" s="77">
+        <f>IFERROR(F24/d_toman2dollar, "-")</f>
+        <v>885106.19572143804</v>
+      </c>
+      <c r="G25" s="77">
+        <f>IFERROR(G24/d_toman2dollar, "-")</f>
+        <v>3121080.3133993899</v>
+      </c>
+      <c r="H25" s="77">
+        <f>IFERROR(H24/d_toman2dollar, "-")</f>
+        <v>8997213.2634213362</v>
+      </c>
+      <c r="I25" s="77">
+        <f>IFERROR(I24/d_toman2dollar, "-")</f>
+        <v>23719936.489364952</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="60" t="str">
+        <f>IFERROR(IRR($D$9:D9), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E29" s="60" t="str">
+        <f>IFERROR(IRR($D$9:E9), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="F29" s="60">
+        <f>IFERROR(IRR($D$9:F9), "-")</f>
+        <v>0.83839309797384365</v>
+      </c>
+      <c r="G29" s="60">
+        <f>IFERROR(IRR($D$9:G9), "-")</f>
+        <v>2.267175795965922</v>
+      </c>
+      <c r="H29" s="60">
+        <f>IFERROR(IRR($D$9:H9), "-")</f>
+        <v>2.9299689338111237</v>
+      </c>
+      <c r="I29" s="60">
+        <f>IFERROR(IRR($D$9:I9), "-")</f>
+        <v>3.2615611775252757</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="60" t="str">
+        <f>IFERROR(IRR($D$11:D11), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E30" s="60" t="str">
+        <f>IFERROR(IRR($D$11:E11), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="F30" s="60">
+        <f>IFERROR(IRR($D$11:F11), "-")</f>
+        <v>-8.4484027911593262E-3</v>
+      </c>
+      <c r="G30" s="60">
+        <f>IFERROR(IRR($D$11:G11), "-")</f>
+        <v>1.2553940010120117</v>
+      </c>
+      <c r="H30" s="60">
+        <f>IFERROR(IRR($D$11:H11), "-")</f>
+        <v>1.9270719674645109</v>
+      </c>
+      <c r="I30" s="60">
+        <f>IFERROR(IRR($D$11:I11), "-")</f>
+        <v>2.3025435900559077</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="60" t="str">
-        <f>IFERROR(IRR($D$10:D10), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="E25" s="60" t="str">
-        <f>IFERROR(IRR($D$10:E10), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F25" s="60">
-        <f>IFERROR(IRR($D$10:F10), "-")</f>
-        <v>-7.094186213720155E-3</v>
-      </c>
-      <c r="G25" s="60">
-        <f>IFERROR(IRR($D$10:G10), "-")</f>
-        <v>1.4176485054428785</v>
-      </c>
-      <c r="H25" s="60">
-        <f>IFERROR(IRR($D$10:H10), "-")</f>
-        <v>2.140447455521457</v>
-      </c>
-      <c r="I25" s="60">
-        <f>IFERROR(IRR($D$10:I10), "-")</f>
-        <v>2.5322864820348197</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="62">
-        <f>NPV(v_DiscountRate,D10)</f>
-        <v>-2479098461.5384617</v>
-      </c>
-      <c r="E26" s="62">
-        <f>NPV(v_DiscountRate,D10,E10)</f>
-        <v>-5152719763.3136091</v>
-      </c>
-      <c r="F26" s="62">
-        <f>NPV(v_DiscountRate,D10,E10,F10)</f>
-        <v>-1664495366.4087391</v>
-      </c>
-      <c r="G26" s="62">
-        <f>NPV(v_DiscountRate,D10,E10,F10,G10)</f>
-        <v>17041007399.600849</v>
-      </c>
-      <c r="H26" s="62">
-        <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10)</f>
-        <v>73616780662.899628</v>
-      </c>
-      <c r="I26" s="62">
-        <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10,I10)</f>
-        <v>224708606699.75436</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="76"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="77"/>
-      <c r="H29" s="75"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="77"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="77"/>
+      <c r="D31" s="62">
+        <f>NPV(v_DiscountRate,D11)</f>
+        <v>-3216310769.2307692</v>
+      </c>
+      <c r="E31" s="62">
+        <f>NPV(v_DiscountRate,D11,E11)</f>
+        <v>-5224074082.8402367</v>
+      </c>
+      <c r="F31" s="62">
+        <f>NPV(v_DiscountRate,D11,E11,F11)</f>
+        <v>-1821567482.9312699</v>
+      </c>
+      <c r="G31" s="62">
+        <v>3</v>
+      </c>
+      <c r="H31" s="62">
+        <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11)</f>
+        <v>65314781309.666451</v>
+      </c>
+      <c r="I31" s="62">
+        <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11,I11)</f>
+        <v>196642672502.61081</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="78"/>
-    </row>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="75"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="62">
+        <f>SUM($D$4:D4)</f>
+        <v>617304000</v>
+      </c>
+      <c r="E35" s="62">
+        <f>SUM($D$4:E4)</f>
+        <v>7425804000</v>
+      </c>
+      <c r="F35" s="62">
+        <f>SUM($D$4:F4)</f>
+        <v>28872579000</v>
+      </c>
+      <c r="G35" s="62">
+        <f>SUM($D$4:G4)</f>
+        <v>96429920250</v>
+      </c>
+      <c r="H35" s="62">
+        <f>SUM($D$4:H4)</f>
+        <v>309235545187.49994</v>
+      </c>
+      <c r="I35" s="62">
+        <f>SUM($D$4:I4)</f>
+        <v>979573263740.62476</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="62">
+        <f>SUM($D$7:D7)</f>
+        <v>2418000000</v>
+      </c>
+      <c r="E36" s="62">
+        <f>SUM($D$7:E7)</f>
+        <v>3972000000</v>
+      </c>
+      <c r="F36" s="62">
+        <f>SUM($D$7:F7)</f>
+        <v>5836800000</v>
+      </c>
+      <c r="G36" s="62">
+        <f>SUM($D$7:G7)</f>
+        <v>8074560000</v>
+      </c>
+      <c r="H36" s="62">
+        <f>SUM($D$7:H7)</f>
+        <v>10759872000</v>
+      </c>
+      <c r="I36" s="62">
+        <f>SUM($D$7:I7)</f>
+        <v>13982246400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="62">
+        <f>SUM($D$7:D8)</f>
+        <v>4798508000</v>
+      </c>
+      <c r="E37" s="62">
+        <f>SUM($D$7:E8)</f>
+        <v>15000128000</v>
+      </c>
+      <c r="F37" s="62">
+        <f>SUM($D$7:F8)</f>
+        <v>28971596000</v>
+      </c>
+      <c r="G37" s="62">
+        <f>SUM($D$7:G8)</f>
+        <v>48158691200</v>
+      </c>
+      <c r="H37" s="62">
+        <f>SUM($D$7:H8)</f>
+        <v>74573072480</v>
+      </c>
+      <c r="I37" s="62">
+        <f>SUM($D$7:I8)</f>
+        <v>111016143872</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="62">
+        <f>SUM(D36:D37)</f>
+        <v>7216508000</v>
+      </c>
+      <c r="E38" s="62">
+        <f t="shared" ref="E38:I38" si="3">SUM(E36:E37)</f>
+        <v>18972128000</v>
+      </c>
+      <c r="F38" s="62">
+        <f t="shared" si="3"/>
+        <v>34808396000</v>
+      </c>
+      <c r="G38" s="62">
+        <f t="shared" si="3"/>
+        <v>56233251200</v>
+      </c>
+      <c r="H38" s="62">
+        <f t="shared" si="3"/>
+        <v>85332944480</v>
+      </c>
+      <c r="I38" s="62">
+        <f t="shared" si="3"/>
+        <v>124998390272</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" x14ac:dyDescent="0.25"/>
+    <row r="51" x14ac:dyDescent="0.25"/>
+    <row r="52" x14ac:dyDescent="0.25"/>
+    <row r="53" x14ac:dyDescent="0.25"/>
+    <row r="54" x14ac:dyDescent="0.25"/>
+    <row r="55" x14ac:dyDescent="0.25"/>
+    <row r="56" x14ac:dyDescent="0.25"/>
+    <row r="57" x14ac:dyDescent="0.25"/>
+    <row r="58" x14ac:dyDescent="0.25"/>
+    <row r="59" x14ac:dyDescent="0.25"/>
+    <row r="60" x14ac:dyDescent="0.25"/>
+    <row r="61" x14ac:dyDescent="0.25"/>
+    <row r="62" x14ac:dyDescent="0.25"/>
+    <row r="63" x14ac:dyDescent="0.25"/>
+    <row r="64" x14ac:dyDescent="0.25"/>
+    <row r="65" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
+    <row r="73" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B34:I34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -10769,51 +11156,51 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>169</v>
-      </c>
       <c r="G1" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="K1" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="66" t="s">
+      <c r="M1" s="66" t="s">
         <v>146</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63">
@@ -10855,25 +11242,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>157</v>
-      </c>
       <c r="C3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="69">
         <v>0.2</v>
@@ -10901,25 +11288,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10947,25 +11334,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10993,25 +11380,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -11039,25 +11426,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -11085,32 +11472,32 @@
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
@@ -11130,10 +11517,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="73">
         <v>0.9</v>
@@ -11177,19 +11564,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="63">
         <v>0.19</v>
@@ -11224,19 +11611,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="63">
         <v>0.1</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="64">
         <v>2.86E-2</v>
@@ -11271,13 +11658,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>154</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>155</v>
       </c>
       <c r="D12" s="63">
         <v>0.15</v>
@@ -11318,25 +11705,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="70">
         <v>0.1</v>
@@ -11414,7 +11801,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="67">
         <v>10000000</v>
@@ -11500,48 +11887,48 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="57" t="s">
+      <c r="L23" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="K23" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="L23" s="57" t="s">
+      <c r="M23" s="57" t="s">
         <v>146</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11590,7 +11977,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11639,7 +12026,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11762,7 +12149,7 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12047,7 +12434,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="21">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -12055,12 +12442,12 @@
         <v>119</v>
       </c>
       <c r="B20" s="21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="21">
         <v>0.2</v>
@@ -12147,11 +12534,11 @@
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_serverCost</f>
-        <v>480000000</v>
+        <v>960000000</v>
       </c>
       <c r="D2" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_serverCost</f>
-        <v>960000000</v>
+        <v>480000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
@@ -12168,11 +12555,11 @@
       </c>
       <c r="C3" s="12">
         <f>tbl_serverCount[1400]*d_ssdCost</f>
-        <v>576000000</v>
+        <v>1152000000</v>
       </c>
       <c r="D3" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_ssdCost</f>
-        <v>1152000000</v>
+        <v>576000000</v>
       </c>
       <c r="E3" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
@@ -12189,7 +12576,7 @@
       </c>
       <c r="C4" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
-        <v>48000000</v>
+        <v>96000000</v>
       </c>
       <c r="D4" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
@@ -12197,7 +12584,7 @@
       </c>
       <c r="E4" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>336000000</v>
+        <v>384000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -12206,15 +12593,15 @@
       </c>
       <c r="C5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1400])</f>
-        <v>1104000000</v>
+        <v>2208000000</v>
       </c>
       <c r="D5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1401])</f>
-        <v>2400000000</v>
+        <v>1344000000</v>
       </c>
       <c r="E5" s="12">
         <f>SUBTOTAL(109,tbl_servers[جمع])</f>
-        <v>3504000000</v>
+        <v>3552000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12243,7 +12630,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -12698,7 +13085,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12888,14 +13275,14 @@
         <v>26</v>
       </c>
       <c r="C10" s="19">
-        <v>100000000</v>
+        <v>40000000</v>
       </c>
       <c r="D10" s="19">
         <v>100000000</v>
       </c>
       <c r="E10" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>200000000</v>
+        <v>140000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -12904,7 +13291,7 @@
       </c>
       <c r="C11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1400])</f>
-        <v>600000000</v>
+        <v>540000000</v>
       </c>
       <c r="D11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1401])</f>
@@ -12912,7 +13299,7 @@
       </c>
       <c r="E11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[جمع])</f>
-        <v>2150000000</v>
+        <v>2090000000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12939,7 +13326,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12978,7 +13365,7 @@
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
-        <v>48000000</v>
+        <v>96000000</v>
       </c>
       <c r="D2" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
@@ -12986,7 +13373,7 @@
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>336000000</v>
+        <v>384000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -12998,14 +13385,14 @@
         <v>61</v>
       </c>
       <c r="C3" s="12">
-        <v>100000000</v>
+        <v>30000000</v>
       </c>
       <c r="D3" s="12">
-        <v>80000000</v>
+        <v>120000000</v>
       </c>
       <c r="E3" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>180000000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -13020,11 +13407,11 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="12">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>50000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -13111,19 +13498,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8) * 10%</f>
-        <v>22580000</v>
+        <v>20380000</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D2:D8) * 10%</f>
-        <v>68920000</v>
+        <v>71920000</v>
       </c>
       <c r="E9" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>91500000</v>
+        <v>92300000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -13132,15 +13519,15 @@
       </c>
       <c r="C10" s="12">
         <f>SUBTOTAL(109,tbl_office[1400])</f>
-        <v>248380000</v>
+        <v>224180000</v>
       </c>
       <c r="D10" s="12">
         <f>SUBTOTAL(109,tbl_office[1401])</f>
-        <v>758120000</v>
+        <v>791120000</v>
       </c>
       <c r="E10" s="12">
         <f>SUBTOTAL(109,tbl_office[جمع])</f>
-        <v>1006500000</v>
+        <v>1015300000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -13525,7 +13912,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>70</v>
@@ -13659,7 +14046,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>84</v>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA450B55-8070-4A01-BFE0-B68F47F1824E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F44676-D778-434D-8A37-9C2A864E3D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -49,14 +49,15 @@
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
     <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
-    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$20</definedName>
-    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$21</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$21</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$22</definedName>
     <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
     <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
     <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
     <definedName name="v_seriD">'مراحل سرمایه‌گذاری'!$K$6</definedName>
     <definedName name="v_seriE">'مراحل سرمایه‌گذاری'!$L$7</definedName>
     <definedName name="v_seriF">'مراحل سرمایه‌گذاری'!$M$8</definedName>
+    <definedName name="v_totalFund">'خلاصه و ارزیابی'!$C$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{225D4D8D-7B54-479E-8CEC-45A0AC103571}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{225D4D8D-7B54-479E-8CEC-45A0AC103571}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -705,18 +706,6 @@
     <t>رشد درآمد نسبت به سال گذشته</t>
   </si>
   <si>
-    <t>دوره بازگشت سرمایه</t>
-  </si>
-  <si>
-    <t>مجموع درآمد تجمعی</t>
-  </si>
-  <si>
-    <t>مجموع هزینه سرمایه ثابت تجمعی</t>
-  </si>
-  <si>
-    <t>مجموع هزینه سرمایه در گردش</t>
-  </si>
-  <si>
     <t>جریان نقدی آزاد (سود و زیان)</t>
   </si>
   <si>
@@ -726,7 +715,10 @@
     <t>میزان بازده داخلی (نرخ داخلی بازگشت سرمایه)</t>
   </si>
   <si>
-    <t>جمع هزینه‌ها</t>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>نرخ بازگشت سرمایه</t>
   </si>
 </sst>
 </file>
@@ -745,7 +737,7 @@
     <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +800,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="IRANSansX"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1013,7 +1011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,12 +1088,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1122,7 +1120,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1141,7 +1139,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1160,7 +1158,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1174,1706 +1171,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
@@ -3329,7 +1626,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -3572,6 +1869,60 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3587,6 +1938,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3605,329 +1958,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3946,21 +1978,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3979,21 +1998,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4012,19 +2018,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4039,6 +2034,2009 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -4907,25 +4905,25 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2208000000</c:v>
+                  <c:v>2472000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210000000</c:v>
+                  <c:v>180000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>970100000</c:v>
+                  <c:v>792100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>540000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210000000</c:v>
+                  <c:v>180000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>224180000</c:v>
+                  <c:v>218240000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>436228000</c:v>
+                  <c:v>438234000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,10 +4994,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1344000000</c:v>
+                  <c:v>1476000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210000000</c:v>
+                  <c:v>240000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4959080000</c:v>
@@ -5014,7 +5012,7 @@
                   <c:v>791120000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>927420000</c:v>
+                  <c:v>943620000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,25 +5550,25 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3552000000</c:v>
+                  <c:v>3948000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>420000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5929180000</c:v>
+                  <c:v>5751180000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2090000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>630000000</c:v>
+                  <c:v>600000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1015300000</c:v>
+                  <c:v>1009360000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1363648000</c:v>
+                  <c:v>1381854000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,10 +5831,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2418000000</c:v>
+                  <c:v>2652000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1554000000</c:v>
+                  <c:v>1716000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5952,10 +5950,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2380508000</c:v>
+                  <c:v>2168574000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8647620000</c:v>
+                  <c:v>8663820000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,10 +6368,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4798508000</c:v>
+                  <c:v>4820574000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10201620000</c:v>
+                  <c:v>10379820000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8760,51 +8758,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8813,17 +8811,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="128" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="127">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="126">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="91">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="125">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8832,33 +8830,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="122">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="85">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="119">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="84">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="118">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="83">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="117">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="82">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="116">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="115">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="80">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="114">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="79">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="113">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8867,93 +8865,93 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J12" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="A1:J12" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="A1:J13" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="110">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="73">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="107">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="106">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="105">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="101"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="98">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9027,31 +9025,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="43" totalsRowDxfId="3">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="42" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="155"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="153" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="152">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="163"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="161" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="160">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="151">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="159">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="150">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="158">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9060,16 +9058,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="149" dataDxfId="148" totalsRowDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156" totalsRowDxfId="155">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="145" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9078,16 +9076,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="138" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9398,7 +9396,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -9448,19 +9446,19 @@
       </c>
       <c r="D2" s="19">
         <f>SUM(tbl_servers[1400])</f>
-        <v>2208000000</v>
+        <v>2472000000</v>
       </c>
       <c r="E2" s="19">
         <f>SUM(tbl_servers[1401])</f>
-        <v>1344000000</v>
+        <v>1476000000</v>
       </c>
       <c r="F2" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>3552000000</v>
+        <v>3948000000</v>
       </c>
       <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.23679797932390975</v>
+        <v>0.25973010962742149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -9476,11 +9474,11 @@
       </c>
       <c r="D3" s="19">
         <f>SUM(tbl_office12[1400])</f>
-        <v>210000000</v>
+        <v>180000000</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(tbl_office12[1401])</f>
-        <v>210000000</v>
+        <v>240000000</v>
       </c>
       <c r="F3" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
@@ -9488,7 +9486,7 @@
       </c>
       <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>2.7999761068705546E-2</v>
+        <v>2.7630862726321436E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -9504,7 +9502,7 @@
       </c>
       <c r="D4" s="19">
         <f>'حقوق و دستمزد'!C15</f>
-        <v>970100000</v>
+        <v>792100000</v>
       </c>
       <c r="E4" s="19">
         <f>'حقوق و دستمزد'!D15</f>
@@ -9512,11 +9510,11 @@
       </c>
       <c r="F4" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>5929180000</v>
+        <v>5751180000</v>
       </c>
       <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.39527529365082748</v>
+        <v>0.37835729784372696</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -9544,7 +9542,7 @@
       </c>
       <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.1393321443657014</v>
+        <v>0.13749643594764716</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -9560,7 +9558,7 @@
       </c>
       <c r="D6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1400])*12</f>
-        <v>210000000</v>
+        <v>180000000</v>
       </c>
       <c r="E6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1401])*12</f>
@@ -9568,11 +9566,11 @@
       </c>
       <c r="F6" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>630000000</v>
+        <v>600000000</v>
       </c>
       <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>4.1999641603058323E-2</v>
+        <v>3.9472661037602053E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -9588,7 +9586,7 @@
       </c>
       <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
-        <v>224180000</v>
+        <v>218240000</v>
       </c>
       <c r="E7" s="19">
         <f>SUM(tbl_office[1401])</f>
@@ -9596,11 +9594,11 @@
       </c>
       <c r="F7" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1015300000</v>
+        <v>1009360000</v>
       </c>
       <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>6.7686089078706532E-2</v>
+        <v>6.6403541908190006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -9616,15 +9614,15 @@
       </c>
       <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
-        <v>436228000</v>
+        <v>438234000</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>927420000</v>
+        <v>943620000</v>
       </c>
       <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1363648000</v>
+        <v>1381854000</v>
       </c>
       <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
@@ -9637,15 +9635,15 @@
       </c>
       <c r="D9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1400])</f>
-        <v>4798508000</v>
+        <v>4820574000</v>
       </c>
       <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>10201620000</v>
+        <v>10379820000</v>
       </c>
       <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>15000128000</v>
+        <v>15200394000</v>
       </c>
       <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
@@ -9678,15 +9676,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="31">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B13)</f>
-        <v>2418000000</v>
+        <v>2652000000</v>
       </c>
       <c r="E13" s="31">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B13)</f>
-        <v>1554000000</v>
+        <v>1716000000</v>
       </c>
       <c r="F13" s="32">
         <f>SUM(D13:E13)</f>
-        <v>3972000000</v>
+        <v>4368000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -9697,15 +9695,15 @@
       <c r="C14" s="28"/>
       <c r="D14" s="33">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B14)</f>
-        <v>2380508000</v>
+        <v>2168574000</v>
       </c>
       <c r="E14" s="33">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
-        <v>8647620000</v>
+        <v>8663820000</v>
       </c>
       <c r="F14" s="34">
         <f>SUM(D14:E14)</f>
-        <v>11028128000</v>
+        <v>10832394000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -9826,7 +9824,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -9884,22 +9882,22 @@
         <v>800</v>
       </c>
       <c r="E2" s="4">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="4">
         <v>4000</v>
       </c>
-      <c r="G2" s="4">
-        <v>5000</v>
-      </c>
       <c r="H2" s="4">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="I2" s="4">
+        <v>12000</v>
+      </c>
+      <c r="J2" s="4">
         <v>20000</v>
-      </c>
-      <c r="J2" s="4">
-        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -9912,35 +9910,35 @@
       </c>
       <c r="C3" s="39">
         <f t="shared" ref="C3:J3" si="1">d_customerConvertRate</f>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="D3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="E3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="F3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="G3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="I3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="J3" s="39">
         <f t="shared" si="1"/>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9953,35 +9951,35 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:J4" si="2">ROUND(C2*d_customerConvertRate, 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>682</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -9994,35 +9992,35 @@
       </c>
       <c r="C5" s="22">
         <f t="shared" ref="C5:J5" si="3">d_customerAvgRevenue</f>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="3"/>
-        <v>30260</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -10035,35 +10033,35 @@
       </c>
       <c r="C6" s="22">
         <f>C5*3</f>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:J6" si="4">D5*3</f>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="4"/>
-        <v>90780</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -10076,35 +10074,35 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ref="C7:J7" si="5">C2*d_customerAvgRevenue</f>
-        <v>15130000</v>
+        <v>23500000</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="5"/>
-        <v>24208000</v>
+        <v>37600000</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="5"/>
-        <v>45390000</v>
+        <v>56400000</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>121040000</v>
+        <v>94000000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="5"/>
-        <v>151300000</v>
+        <v>188000000</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="5"/>
-        <v>302600000</v>
+        <v>329000000</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="5"/>
-        <v>605200000</v>
+        <v>564000000</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="5"/>
-        <v>1210400000</v>
+        <v>940000000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -10112,40 +10110,40 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="16">
         <f>C7*3</f>
-        <v>45390000</v>
+        <v>70500000</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" ref="D8:J8" si="6">D7*3</f>
-        <v>72624000</v>
+        <v>112800000</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="6"/>
-        <v>136170000</v>
+        <v>169200000</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="6"/>
-        <v>363120000</v>
+        <v>282000000</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="6"/>
-        <v>453900000</v>
+        <v>564000000</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="6"/>
-        <v>907800000</v>
+        <v>987000000</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="6"/>
-        <v>1815600000</v>
+        <v>1692000000</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="6"/>
-        <v>3631200000</v>
+        <v>2820000000</v>
       </c>
     </row>
   </sheetData>
@@ -10162,931 +10160,891 @@
   <sheetPr>
     <tabColor rgb="FFC80A5A"/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="25.7109375" style="56" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="56" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="56" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="0" style="56" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="25.7109375" style="55" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="55" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="55" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="55" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="0" style="55" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="55">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="57">
         <v>1</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="57">
         <v>2</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="57">
         <v>3</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="57">
         <v>4</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H2" s="57">
         <v>5</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="57">
         <v>6</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="55">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="57">
         <f>'پیش‌بینی درآمد'!F2</f>
-        <v>4000</v>
-      </c>
-      <c r="E3" s="58">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="57">
         <f>'پیش‌بینی درآمد'!J2</f>
-        <v>40000</v>
-      </c>
-      <c r="F3" s="58">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="57">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
-        <v>90000</v>
-      </c>
-      <c r="G3" s="58">
+        <v>45000</v>
+      </c>
+      <c r="G3" s="57">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
-        <v>202500</v>
-      </c>
-      <c r="H3" s="58">
+        <v>101250</v>
+      </c>
+      <c r="H3" s="57">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
-        <v>455625</v>
-      </c>
-      <c r="I3" s="58">
+        <v>227812.5</v>
+      </c>
+      <c r="I3" s="57">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
-        <v>1025156.25</v>
-      </c>
-      <c r="J3" s="59"/>
+        <v>512578.125</v>
+      </c>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
-        <v>617304000</v>
-      </c>
-      <c r="E4" s="62">
+        <v>634500000</v>
+      </c>
+      <c r="E4" s="61">
         <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
-        <v>6808500000</v>
-      </c>
-      <c r="F4" s="62">
+        <v>6063000000</v>
+      </c>
+      <c r="F4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr) *(1+s_costsGrowthYOY)</f>
-        <v>21446775000</v>
-      </c>
-      <c r="G4" s="62">
+        <v>19098450000</v>
+      </c>
+      <c r="G4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>67557341249.999992</v>
-      </c>
-      <c r="H4" s="62">
+        <v>60160117499.999992</v>
+      </c>
+      <c r="H4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>212805624937.49994</v>
-      </c>
-      <c r="I4" s="62">
+        <v>189504370124.99997</v>
+      </c>
+      <c r="I4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>670337718553.12476</v>
-      </c>
-      <c r="J4" s="59">
+        <v>596938765893.74988</v>
+      </c>
+      <c r="J4" s="58">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>979573263740.62476</v>
+        <v>872399203518.74988</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="77">
-        <f>D4/d_toman2dollar</f>
-        <v>30865.200000000001</v>
-      </c>
-      <c r="E5" s="77">
-        <f>E4/d_toman2dollar</f>
-        <v>340425</v>
-      </c>
-      <c r="F5" s="77">
-        <f>F4/d_toman2dollar</f>
-        <v>1072338.75</v>
-      </c>
-      <c r="G5" s="77">
-        <f>G4/d_toman2dollar</f>
-        <v>3377867.0624999995</v>
-      </c>
-      <c r="H5" s="77">
-        <f>H4/d_toman2dollar</f>
-        <v>10640281.246874997</v>
-      </c>
-      <c r="I5" s="77">
-        <f>I4/d_toman2dollar</f>
-        <v>33516885.927656237</v>
-      </c>
-      <c r="J5" s="59">
+      <c r="D5" s="76">
+        <f t="shared" ref="D5:I5" si="0">D4/d_toman2dollar</f>
+        <v>28200</v>
+      </c>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
+        <v>269466.66666666669</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
+        <v>848820</v>
+      </c>
+      <c r="G5" s="76">
+        <f t="shared" si="0"/>
+        <v>2673782.9999999995</v>
+      </c>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
+        <v>8422416.4499999993</v>
+      </c>
+      <c r="I5" s="76">
+        <f t="shared" si="0"/>
+        <v>26530611.817499995</v>
+      </c>
+      <c r="J5" s="58">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>48978663.187031232</v>
+        <v>38773297.934166662</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <f>ROW(A5)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="60">
+      <c r="D6" s="77"/>
+      <c r="E6" s="59">
         <f>E5/D5</f>
-        <v>11.029411764705882</v>
-      </c>
-      <c r="F6" s="60">
-        <f t="shared" ref="F6:I6" si="0">F5/E5</f>
+        <v>9.5555555555555554</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" ref="F6:I6" si="1">F5/E5</f>
         <v>3.15</v>
       </c>
-      <c r="G6" s="60">
-        <f t="shared" si="0"/>
+      <c r="G6" s="59">
+        <f t="shared" si="1"/>
         <v>3.1499999999999995</v>
       </c>
-      <c r="H6" s="60">
-        <f t="shared" si="0"/>
-        <v>3.1499999999999995</v>
-      </c>
-      <c r="I6" s="60">
-        <f t="shared" si="0"/>
-        <v>3.1499999999999995</v>
-      </c>
-      <c r="J6" s="59"/>
+      <c r="H6" s="59">
+        <f t="shared" si="1"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="I6" s="59">
+        <f t="shared" si="1"/>
+        <v>3.15</v>
+      </c>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>2418000000</v>
-      </c>
-      <c r="E7" s="62">
+        <v>2652000000</v>
+      </c>
+      <c r="E7" s="61">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>1554000000</v>
-      </c>
-      <c r="F7" s="62">
+        <v>1716000000</v>
+      </c>
+      <c r="F7" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>1864800000</v>
-      </c>
-      <c r="G7" s="62">
+        <v>2059200000</v>
+      </c>
+      <c r="G7" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>2237760000</v>
-      </c>
-      <c r="H7" s="62">
+        <v>2471040000</v>
+      </c>
+      <c r="H7" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>2685312000</v>
-      </c>
-      <c r="I7" s="62">
+        <v>2965248000</v>
+      </c>
+      <c r="I7" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>3222374400</v>
-      </c>
-      <c r="J7" s="62">
+        <v>3558297600</v>
+      </c>
+      <c r="J7" s="61">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>13982246400</v>
+        <v>15421785600</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <f t="shared" ref="A8:A11" si="1">ROW(A7)</f>
+      <c r="A8" s="55">
+        <f t="shared" ref="A8:A11" si="2">ROW(A7)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="61">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>2380508000</v>
-      </c>
-      <c r="E8" s="62">
+        <v>2168574000</v>
+      </c>
+      <c r="E8" s="61">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>8647620000</v>
-      </c>
-      <c r="F8" s="62">
+        <v>8663820000</v>
+      </c>
+      <c r="F8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
-        <v>12106668000</v>
-      </c>
-      <c r="G8" s="62">
+        <v>12129348000</v>
+      </c>
+      <c r="G8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
-        <v>16949335199.999998</v>
-      </c>
-      <c r="H8" s="62">
+        <v>16981087199.999998</v>
+      </c>
+      <c r="H8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
-        <v>23729069279.999996</v>
-      </c>
-      <c r="I8" s="62">
+        <v>23773522079.999996</v>
+      </c>
+      <c r="I8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
-        <v>33220696991.999992</v>
-      </c>
-      <c r="J8" s="62">
+        <v>33282930911.999992</v>
+      </c>
+      <c r="J8" s="61">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>97033897472</v>
+        <v>96999282192</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <f>ROW(A8)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="62">
-        <f>D4-D8</f>
-        <v>-1763204000</v>
-      </c>
-      <c r="E9" s="62">
-        <f>E4-E8</f>
-        <v>-1839120000</v>
-      </c>
-      <c r="F9" s="62">
-        <f>F4-F8</f>
-        <v>9340107000</v>
-      </c>
-      <c r="G9" s="62">
-        <f>G4-G8</f>
-        <v>50608006049.999992</v>
-      </c>
-      <c r="H9" s="62">
-        <f>H4-H8</f>
-        <v>189076555657.49994</v>
-      </c>
-      <c r="I9" s="62">
-        <f>I4-I8</f>
-        <v>637117021561.12476</v>
-      </c>
-      <c r="J9" s="59"/>
+      <c r="D9" s="61">
+        <f t="shared" ref="D9:I9" si="3">D4-D8</f>
+        <v>-1534074000</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="3"/>
+        <v>-2600820000</v>
+      </c>
+      <c r="F9" s="61">
+        <f t="shared" si="3"/>
+        <v>6969102000</v>
+      </c>
+      <c r="G9" s="61">
+        <f t="shared" si="3"/>
+        <v>43179030299.999992</v>
+      </c>
+      <c r="H9" s="61">
+        <f t="shared" si="3"/>
+        <v>165730848044.99997</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="3"/>
+        <v>563655834981.74988</v>
+      </c>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
-        <f t="shared" si="1"/>
+      <c r="A10" s="55">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="60">
-        <f>D9/D4</f>
-        <v>-2.8562977074504619</v>
-      </c>
-      <c r="E10" s="60">
-        <f>E9/E4</f>
-        <v>-0.27012117206433134</v>
-      </c>
-      <c r="F10" s="60">
-        <f>F9/F4</f>
-        <v>0.43550170130474164</v>
-      </c>
-      <c r="G10" s="60">
-        <f>G9/G4</f>
-        <v>0.74911186724655177</v>
-      </c>
-      <c r="H10" s="60">
-        <f>H9/H4</f>
-        <v>0.88849416322068964</v>
-      </c>
-      <c r="I10" s="60">
-        <f>I9/I4</f>
-        <v>0.95044185032030648</v>
-      </c>
-      <c r="J10" s="59"/>
+      <c r="D10" s="59">
+        <f t="shared" ref="D10:I10" si="4">D9/D4</f>
+        <v>-2.4177683215130026</v>
+      </c>
+      <c r="E10" s="59">
+        <f t="shared" si="4"/>
+        <v>-0.42896585848589808</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="4"/>
+        <v>0.36490406289515642</v>
+      </c>
+      <c r="G10" s="59">
+        <f t="shared" si="4"/>
+        <v>0.71773513906451392</v>
+      </c>
+      <c r="H10" s="59">
+        <f t="shared" si="4"/>
+        <v>0.87454895069533956</v>
+      </c>
+      <c r="I10" s="59">
+        <f t="shared" si="4"/>
+        <v>0.94424397808681759</v>
+      </c>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <f t="shared" si="1"/>
+      <c r="A11" s="55">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="62">
-        <f>D9-D7</f>
-        <v>-4181204000</v>
-      </c>
-      <c r="E11" s="62">
-        <f>E9-E7</f>
-        <v>-3393120000</v>
-      </c>
-      <c r="F11" s="62">
-        <f>F9-F7</f>
-        <v>7475307000</v>
-      </c>
-      <c r="G11" s="62">
-        <f>G9-G7</f>
-        <v>48370246049.999992</v>
-      </c>
-      <c r="H11" s="62">
-        <f>H9-H7</f>
-        <v>186391243657.49994</v>
-      </c>
-      <c r="I11" s="62">
-        <f>I9-I7</f>
-        <v>633894647161.12476</v>
-      </c>
-      <c r="J11" s="59"/>
+      <c r="D11" s="61">
+        <f t="shared" ref="D11:I11" si="5">D9-D7</f>
+        <v>-4186074000</v>
+      </c>
+      <c r="E11" s="61">
+        <f t="shared" si="5"/>
+        <v>-4316820000</v>
+      </c>
+      <c r="F11" s="61">
+        <f t="shared" si="5"/>
+        <v>4909902000</v>
+      </c>
+      <c r="G11" s="61">
+        <f t="shared" si="5"/>
+        <v>40707990299.999992</v>
+      </c>
+      <c r="H11" s="61">
+        <f t="shared" si="5"/>
+        <v>162765600044.99997</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="5"/>
+        <v>560097537381.74988</v>
+      </c>
+      <c r="J11" s="61">
+        <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
+        <v>759978135726.74988</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <f>ROW(A11)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="62">
+      <c r="B12" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="61">
         <f>SUM($D$11:D11)</f>
-        <v>-4181204000</v>
-      </c>
-      <c r="E12" s="62">
+        <v>-4186074000</v>
+      </c>
+      <c r="E12" s="61">
         <f>SUM($D$11:E11)</f>
-        <v>-7574324000</v>
-      </c>
-      <c r="F12" s="62">
+        <v>-8502894000</v>
+      </c>
+      <c r="F12" s="61">
         <f>SUM($D$11:F11)</f>
-        <v>-99017000</v>
-      </c>
-      <c r="G12" s="62">
+        <v>-3592992000</v>
+      </c>
+      <c r="G12" s="61">
         <f>SUM($D$11:G11)</f>
-        <v>48271229049.999992</v>
-      </c>
-      <c r="H12" s="62">
+        <v>37114998299.999992</v>
+      </c>
+      <c r="H12" s="61">
         <f>SUM($D$11:H11)</f>
-        <v>234662472707.49994</v>
-      </c>
-      <c r="I12" s="62">
+        <v>199880598344.99997</v>
+      </c>
+      <c r="I12" s="61">
         <f>SUM($D$11:I11)</f>
-        <v>868557119868.62476</v>
-      </c>
-      <c r="J12" s="59"/>
+        <v>759978135726.74988</v>
+      </c>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="A13" s="55">
+        <f>ROW(A12)</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="59">
+        <f>D12/v_totalFund</f>
+        <v>-0.27539960526315788</v>
+      </c>
+      <c r="E13" s="59">
+        <f>E12/v_totalFund</f>
+        <v>-0.55940092105263162</v>
+      </c>
+      <c r="F13" s="59">
+        <f>F12/v_totalFund</f>
+        <v>-0.23638105263157894</v>
+      </c>
+      <c r="G13" s="59">
+        <f>G12/v_totalFund</f>
+        <v>2.4417762039473678</v>
+      </c>
+      <c r="H13" s="59">
+        <f>H12/v_totalFund</f>
+        <v>13.15003936480263</v>
+      </c>
+      <c r="I13" s="59">
+        <f>I12/v_totalFund</f>
+        <v>49.998561560970387</v>
+      </c>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C15" s="61">
         <f>ROUND(SUM(tbl_sumary[[1400]:[1401]]),-7 )</f>
-        <v>15000000000</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+        <v>15200000000</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D21" s="60">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D22" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="62">
-        <f>D11/(1+v_DiscountRate)^D2</f>
-        <v>-3216310769.2307692</v>
-      </c>
-      <c r="E22" s="62">
-        <f>E11/(1+v_DiscountRate)^E2</f>
-        <v>-2007763313.6094673</v>
-      </c>
-      <c r="F22" s="62">
-        <f>F11/(1+v_DiscountRate)^F2</f>
-        <v>3402506599.9089661</v>
-      </c>
-      <c r="G22" s="62">
-        <f>G11/(1+v_DiscountRate)^G2</f>
-        <v>16935767672.700529</v>
-      </c>
-      <c r="H22" s="62">
-        <f>H11/(1+v_DiscountRate)^H2</f>
-        <v>50200581119.897194</v>
-      </c>
-      <c r="I22" s="62">
-        <f>I11/(1+v_DiscountRate)^I2</f>
-        <v>131327891192.94435</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
+      <c r="D23" s="61">
+        <f t="shared" ref="D23:I23" si="6">D11/(1+v_DiscountRate)^D2</f>
+        <v>-3220056923.0769229</v>
+      </c>
+      <c r="E23" s="61">
+        <f t="shared" si="6"/>
+        <v>-2554331360.9467454</v>
+      </c>
+      <c r="F23" s="61">
+        <f t="shared" si="6"/>
+        <v>2234821119.708693</v>
+      </c>
+      <c r="G23" s="61">
+        <f t="shared" si="6"/>
+        <v>14252998949.616604</v>
+      </c>
+      <c r="H23" s="61">
+        <f t="shared" si="6"/>
+        <v>43837508394.987228</v>
+      </c>
+      <c r="I23" s="61">
+        <f t="shared" si="6"/>
+        <v>116038885603.66687</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="62">
-        <f t="shared" ref="D23:I23" si="2">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
-        <v>949698461.53846145</v>
-      </c>
-      <c r="E23" s="62">
-        <f t="shared" si="2"/>
-        <v>8057396449.7041416</v>
-      </c>
-      <c r="F23" s="62">
-        <f t="shared" si="2"/>
-        <v>19523691397.360031</v>
-      </c>
-      <c r="G23" s="62">
-        <f t="shared" si="2"/>
-        <v>47307406078.218536</v>
-      </c>
-      <c r="H23" s="62">
-        <f t="shared" si="2"/>
-        <v>114629483958.76027</v>
-      </c>
-      <c r="I23" s="62">
-        <f t="shared" si="2"/>
-        <v>277756057284.68829</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="56" t="s">
+      <c r="D24" s="61">
+        <f t="shared" ref="D24:I24" si="7">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <v>976153846.15384614</v>
+      </c>
+      <c r="E24" s="61">
+        <f t="shared" si="7"/>
+        <v>7175147928.9940825</v>
+      </c>
+      <c r="F24" s="61">
+        <f t="shared" si="7"/>
+        <v>17385935366.408733</v>
+      </c>
+      <c r="G24" s="61">
+        <f t="shared" si="7"/>
+        <v>42127458772.451935</v>
+      </c>
+      <c r="H24" s="61">
+        <f t="shared" si="7"/>
+        <v>102078073179.40274</v>
+      </c>
+      <c r="I24" s="61">
+        <f t="shared" si="7"/>
+        <v>247343023473.16815</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="62" t="str">
-        <f>IF(SUM($D$22:D22) + D23 &gt; 0, SUM($D$22:D22) + D23, "-")</f>
+      <c r="D25" s="61" t="str">
+        <f>IF(SUM($D$23:D23) + D24 &gt; 0, SUM($D$23:D23) + D24, "-")</f>
         <v>-</v>
       </c>
-      <c r="E24" s="62">
-        <f>IF(SUM($D$22:E22) + E23 &gt; 0, SUM($D$22:E22) + E23, "-")</f>
-        <v>2833322366.863905</v>
-      </c>
-      <c r="F24" s="62">
-        <f>IF(SUM($D$22:F22) + F23 &gt; 0, SUM($D$22:F22) + F23, "-")</f>
-        <v>17702123914.428761</v>
-      </c>
-      <c r="G24" s="62">
-        <f>IF(SUM($D$22:G22) + G23 &gt; 0, SUM($D$22:G22) + G23, "-")</f>
-        <v>62421606267.987793</v>
-      </c>
-      <c r="H24" s="62">
-        <f>IF(SUM($D$22:H22) + H23 &gt; 0, SUM($D$22:H22) + H23, "-")</f>
-        <v>179944265268.42673</v>
-      </c>
-      <c r="I24" s="62">
-        <f>IF(SUM($D$22:I22) + I23 &gt; 0, SUM($D$22:I22) + I23, "-")</f>
-        <v>474398729787.29907</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
+      <c r="E25" s="61">
+        <f>IF(SUM($D$23:E23) + E24 &gt; 0, SUM($D$23:E23) + E24, "-")</f>
+        <v>1400759644.9704142</v>
+      </c>
+      <c r="F25" s="61">
+        <f>IF(SUM($D$23:F23) + F24 &gt; 0, SUM($D$23:F23) + F24, "-")</f>
+        <v>13846368202.093758</v>
+      </c>
+      <c r="G25" s="61">
+        <f>IF(SUM($D$23:G23) + G24 &gt; 0, SUM($D$23:G23) + G24, "-")</f>
+        <v>52840890557.753563</v>
+      </c>
+      <c r="H25" s="61">
+        <f>IF(SUM($D$23:H23) + H24 &gt; 0, SUM($D$23:H23) + H24, "-")</f>
+        <v>156629013359.69159</v>
+      </c>
+      <c r="I25" s="61">
+        <f>IF(SUM($D$23:I23) + I24 &gt; 0, SUM($D$23:I23) + I24, "-")</f>
+        <v>417932849257.1239</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="77" t="str">
-        <f>IFERROR(D24/d_toman2dollar, "-")</f>
+      <c r="D26" s="76" t="str">
+        <f t="shared" ref="D26:I26" si="8">IFERROR(D25/d_toman2dollar, "-")</f>
         <v>-</v>
       </c>
-      <c r="E25" s="77">
-        <f>IFERROR(E24/d_toman2dollar, "-")</f>
-        <v>141666.11834319524</v>
-      </c>
-      <c r="F25" s="77">
-        <f>IFERROR(F24/d_toman2dollar, "-")</f>
-        <v>885106.19572143804</v>
-      </c>
-      <c r="G25" s="77">
-        <f>IFERROR(G24/d_toman2dollar, "-")</f>
-        <v>3121080.3133993899</v>
-      </c>
-      <c r="H25" s="77">
-        <f>IFERROR(H24/d_toman2dollar, "-")</f>
-        <v>8997213.2634213362</v>
-      </c>
-      <c r="I25" s="77">
-        <f>IFERROR(I24/d_toman2dollar, "-")</f>
-        <v>23719936.489364952</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="76">
+        <f t="shared" si="8"/>
+        <v>62255.984220907296</v>
+      </c>
+      <c r="F26" s="76">
+        <f t="shared" si="8"/>
+        <v>615394.14231527806</v>
+      </c>
+      <c r="G26" s="76">
+        <f t="shared" si="8"/>
+        <v>2348484.0247890474</v>
+      </c>
+      <c r="H26" s="76">
+        <f t="shared" si="8"/>
+        <v>6961289.4826529594</v>
+      </c>
+      <c r="I26" s="76">
+        <f t="shared" si="8"/>
+        <v>18574793.300316617</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="60" t="str">
+      <c r="D30" s="59" t="str">
         <f>IFERROR(IRR($D$9:D9), "-")</f>
         <v>-</v>
       </c>
-      <c r="E29" s="60" t="str">
+      <c r="E30" s="59" t="str">
         <f>IFERROR(IRR($D$9:E9), "-")</f>
         <v>-</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F30" s="59">
         <f>IFERROR(IRR($D$9:F9), "-")</f>
-        <v>0.83839309797384365</v>
-      </c>
-      <c r="G29" s="60">
+        <v>0.44609895656823384</v>
+      </c>
+      <c r="G30" s="59">
         <f>IFERROR(IRR($D$9:G9), "-")</f>
-        <v>2.267175795965922</v>
-      </c>
-      <c r="H29" s="60">
+        <v>1.9851232488841473</v>
+      </c>
+      <c r="H30" s="59">
         <f>IFERROR(IRR($D$9:H9), "-")</f>
-        <v>2.9299689338111237</v>
-      </c>
-      <c r="I29" s="60">
+        <v>2.7051005864392832</v>
+      </c>
+      <c r="I30" s="59">
         <f>IFERROR(IRR($D$9:I9), "-")</f>
-        <v>3.2615611775252757</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="s">
+        <v>3.0681409092506842</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="60" t="str">
+      <c r="D31" s="59" t="str">
         <f>IFERROR(IRR($D$11:D11), "-")</f>
         <v>-</v>
       </c>
-      <c r="E30" s="60" t="str">
+      <c r="E31" s="59" t="str">
         <f>IFERROR(IRR($D$11:E11), "-")</f>
         <v>-</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F31" s="59">
         <f>IFERROR(IRR($D$11:F11), "-")</f>
-        <v>-8.4484027911593262E-3</v>
-      </c>
-      <c r="G30" s="60">
+        <v>-0.31612772463146843</v>
+      </c>
+      <c r="G31" s="59">
         <f>IFERROR(IRR($D$11:G11), "-")</f>
-        <v>1.2553940010120117</v>
-      </c>
-      <c r="H30" s="60">
+        <v>0.9963497571131692</v>
+      </c>
+      <c r="H31" s="59">
         <f>IFERROR(IRR($D$11:H11), "-")</f>
-        <v>1.9270719674645109</v>
-      </c>
-      <c r="I30" s="60">
+        <v>1.7029023538704346</v>
+      </c>
+      <c r="I31" s="59">
         <f>IFERROR(IRR($D$11:I11), "-")</f>
-        <v>2.3025435900559077</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="56" t="s">
+        <v>2.1026608341394457</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C32" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D32" s="61">
         <f>NPV(v_DiscountRate,D11)</f>
-        <v>-3216310769.2307692</v>
-      </c>
-      <c r="E31" s="62">
+        <v>-3220056923.0769229</v>
+      </c>
+      <c r="E32" s="61">
         <f>NPV(v_DiscountRate,D11,E11)</f>
-        <v>-5224074082.8402367</v>
-      </c>
-      <c r="F31" s="62">
+        <v>-5774388284.0236683</v>
+      </c>
+      <c r="F32" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11)</f>
-        <v>-1821567482.9312699</v>
-      </c>
-      <c r="G31" s="62">
+        <v>-3539567164.3149748</v>
+      </c>
+      <c r="G32" s="61">
         <v>3</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H32" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11)</f>
-        <v>65314781309.666451</v>
-      </c>
-      <c r="I31" s="62">
+        <v>54550940180.288857</v>
+      </c>
+      <c r="I32" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11,I11)</f>
-        <v>196642672502.61081</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
+        <v>170589825783.95572</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
+      <c r="E34" s="74"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="62">
-        <f>SUM($D$4:D4)</f>
-        <v>617304000</v>
-      </c>
-      <c r="E35" s="62">
-        <f>SUM($D$4:E4)</f>
-        <v>7425804000</v>
-      </c>
-      <c r="F35" s="62">
-        <f>SUM($D$4:F4)</f>
-        <v>28872579000</v>
-      </c>
-      <c r="G35" s="62">
-        <f>SUM($D$4:G4)</f>
-        <v>96429920250</v>
-      </c>
-      <c r="H35" s="62">
-        <f>SUM($D$4:H4)</f>
-        <v>309235545187.49994</v>
-      </c>
-      <c r="I35" s="62">
-        <f>SUM($D$4:I4)</f>
-        <v>979573263740.62476</v>
-      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="62">
-        <f>SUM($D$7:D7)</f>
-        <v>2418000000</v>
-      </c>
-      <c r="E36" s="62">
-        <f>SUM($D$7:E7)</f>
-        <v>3972000000</v>
-      </c>
-      <c r="F36" s="62">
-        <f>SUM($D$7:F7)</f>
-        <v>5836800000</v>
-      </c>
-      <c r="G36" s="62">
-        <f>SUM($D$7:G7)</f>
-        <v>8074560000</v>
-      </c>
-      <c r="H36" s="62">
-        <f>SUM($D$7:H7)</f>
-        <v>10759872000</v>
-      </c>
-      <c r="I36" s="62">
-        <f>SUM($D$7:I7)</f>
-        <v>13982246400</v>
-      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="62">
-        <f>SUM($D$7:D8)</f>
-        <v>4798508000</v>
-      </c>
-      <c r="E37" s="62">
-        <f>SUM($D$7:E8)</f>
-        <v>15000128000</v>
-      </c>
-      <c r="F37" s="62">
-        <f>SUM($D$7:F8)</f>
-        <v>28971596000</v>
-      </c>
-      <c r="G37" s="62">
-        <f>SUM($D$7:G8)</f>
-        <v>48158691200</v>
-      </c>
-      <c r="H37" s="62">
-        <f>SUM($D$7:H8)</f>
-        <v>74573072480</v>
-      </c>
-      <c r="I37" s="62">
-        <f>SUM($D$7:I8)</f>
-        <v>111016143872</v>
-      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="62">
-        <f>SUM(D36:D37)</f>
-        <v>7216508000</v>
-      </c>
-      <c r="E38" s="62">
-        <f t="shared" ref="E38:I38" si="3">SUM(E36:E37)</f>
-        <v>18972128000</v>
-      </c>
-      <c r="F38" s="62">
-        <f t="shared" si="3"/>
-        <v>34808396000</v>
-      </c>
-      <c r="G38" s="62">
-        <f t="shared" si="3"/>
-        <v>56233251200</v>
-      </c>
-      <c r="H38" s="62">
-        <f t="shared" si="3"/>
-        <v>85332944480</v>
-      </c>
-      <c r="I38" s="62">
-        <f t="shared" si="3"/>
-        <v>124998390272</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+    </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25"/>
@@ -11120,11 +11078,12 @@
     <row r="71" x14ac:dyDescent="0.25"/>
     <row r="72" x14ac:dyDescent="0.25"/>
     <row r="73" x14ac:dyDescent="0.25"/>
+    <row r="74" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B35:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11145,979 +11104,979 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="57" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="57" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="25.7109375" style="57" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="57" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="57" hidden="1"/>
+    <col min="1" max="1" width="21" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="56" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="25.7109375" style="56" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="56" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="56" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="63">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="63">
         <v>8.6E-3</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="63">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>1.12E-4</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>9.5199999999999997E-5</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>8.0919999999999991E-5</v>
       </c>
-      <c r="L2" s="68">
+      <c r="L2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>7.2827999999999988E-5</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="67">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>6.5545199999999997E-5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="68">
         <v>0.2</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.11560000000000001</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.10404000000000001</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.3636000000000011E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="64" t="str">
+      <c r="H4" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="68">
         <v>0.2</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.17</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.14450000000000002</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.13005000000000003</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.11704500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="64" t="str">
+      <c r="H5" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <v>0.15</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.1275</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.11475</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.10327500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="64" t="str">
+      <c r="H6" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I6" s="64" t="str">
+      <c r="I6" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J6" s="64" t="str">
+      <c r="J6" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="68">
         <v>0.15</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.12150000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="64" t="str">
+      <c r="H7" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I7" s="64" t="str">
+      <c r="I7" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J7" s="64" t="str">
+      <c r="J7" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K7" s="64" t="str">
+      <c r="K7" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>-</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="68">
         <v>0.1</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="64" t="str">
+      <c r="H8" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="64" t="str">
+      <c r="J8" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K8" s="64" t="str">
+      <c r="K8" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>-</v>
       </c>
-      <c r="L8" s="64" t="str">
+      <c r="L8" s="63" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>-</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="68">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>0.9</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <v>0.3</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="73">
         <v>0.86</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="73">
         <v>0.75139999999999996</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="73">
         <v>0.6593</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>0.46150999999999998</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.36920799999999998</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.31382679999999996</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.26675277999999997</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.24007750199999997</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="73">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.21606975179999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <v>0.19</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <v>0.3</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>0.21</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.14280000000000001</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.12138</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.10924200000000001</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.8317800000000011E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>0.1</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <v>2.86E-2</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="62">
         <v>0.04</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>2.24E-2</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>1.9039999999999998E-2</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>1.6183999999999997E-2</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>1.4565599999999998E-2</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>1.3109039999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>0.15</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="63">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>3.5E-4</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>2.0230000000000001E-4</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>1.8207000000000002E-4</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>1.6386300000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="69">
         <v>0.1</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>5.2020000000000004E-2</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="63">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>4.6818000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Start 1394])</f>
         <v>1</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Seed Angel 1395])</f>
         <v>1</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Angel Out 1397/2/22])</f>
         <v>1</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[1397/5/1])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[1399])</f>
         <v>1</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series A])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series B])</f>
         <v>1</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series C])</f>
         <v>1</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series D])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="64">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series E])</f>
         <v>1</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="70">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series F])</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <v>10000000</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <v>10000000</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="66">
         <v>1000000</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="66">
         <v>7000000</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="66">
         <v>300000000</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>8.6E-3</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.20014000000000001</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.36011200000000004</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.45609520000000003</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.53768092000000001</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.58391282800000011</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.62552154520000003</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>1</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.93989999999999996</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.99139999999999995</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.69985999999999993</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.55988799999999994</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.47590480000000002</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.40451907999999992</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.36406717199999994</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.3276604548</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.1</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>5.2020000000000004E-2</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="63">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>4.6818000000000005E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="70">
         <f>SUBTOTAL(109,Table13[Start 1394])</f>
         <v>1</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="70">
         <f>SUBTOTAL(109,Table13[Seed Angel 1395])</f>
         <v>1</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="70">
         <f>SUBTOTAL(109,Table13[Angel Out 1397/2/22])</f>
         <v>1</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="70">
         <f>SUBTOTAL(109,Table13[1397/5/1])</f>
         <v>1</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="70">
         <f>SUBTOTAL(109,Table13[1399])</f>
         <v>1</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="70">
         <f>SUBTOTAL(109,Table13[Series A])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="70">
         <f>SUBTOTAL(109,Table13[Series B])</f>
         <v>1</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="70">
         <f>SUBTOTAL(109,Table13[Series C])</f>
         <v>1</v>
       </c>
-      <c r="K27" s="71">
+      <c r="K27" s="70">
         <f>SUBTOTAL(109,Table13[Series D])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L27" s="70">
         <f>SUBTOTAL(109,Table13[Series E])</f>
         <v>1</v>
       </c>
-      <c r="M27" s="71">
+      <c r="M27" s="70">
         <f>SUBTOTAL(109,Table13[Series F])</f>
         <v>1</v>
       </c>
@@ -12148,7 +12107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3603962-EF5C-474D-9511-4229C995700E}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -12273,7 +12232,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12337,8 +12296,8 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22">
-        <v>20000</v>
+      <c r="B7" s="79">
+        <v>22500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -12387,7 +12346,7 @@
       </c>
       <c r="B13" s="12">
         <f>d_serverDollarCost*d_toman2dollar</f>
-        <v>240000000</v>
+        <v>270000000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -12396,7 +12355,7 @@
       </c>
       <c r="B14" s="12">
         <f>d_ssdDollarCost*d_toman2dollar * 24</f>
-        <v>288000000</v>
+        <v>324000000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -12494,7 +12453,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12534,15 +12493,15 @@
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_serverCost</f>
-        <v>960000000</v>
+        <v>1080000000</v>
       </c>
       <c r="D2" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_serverCost</f>
-        <v>480000000</v>
+        <v>540000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>1440000000</v>
+        <v>1620000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -12555,15 +12514,15 @@
       </c>
       <c r="C3" s="12">
         <f>tbl_serverCount[1400]*d_ssdCost</f>
-        <v>1152000000</v>
+        <v>1296000000</v>
       </c>
       <c r="D3" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_ssdCost</f>
-        <v>576000000</v>
+        <v>648000000</v>
       </c>
       <c r="E3" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>1728000000</v>
+        <v>1944000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -12593,15 +12552,15 @@
       </c>
       <c r="C5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1400])</f>
-        <v>2208000000</v>
+        <v>2472000000</v>
       </c>
       <c r="D5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1401])</f>
-        <v>1344000000</v>
+        <v>1476000000</v>
       </c>
       <c r="E5" s="12">
         <f>SUBTOTAL(109,tbl_servers[جمع])</f>
-        <v>3552000000</v>
+        <v>3948000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12702,11 +12661,11 @@
       </c>
       <c r="C2" s="12">
         <f>d_staff1400*d_systemPerPerson</f>
-        <v>210000000</v>
+        <v>180000000</v>
       </c>
       <c r="D2" s="12">
         <f>d_staff1401 * d_systemPerPerson</f>
-        <v>210000000</v>
+        <v>240000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_office12[[#This Row],[1400]:[1401]])</f>
@@ -12746,7 +12705,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12785,7 +12744,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>6</v>
@@ -12844,7 +12803,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1400])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1401])</f>
@@ -12875,11 +12834,11 @@
       </c>
       <c r="C12" s="24">
         <f>SUM(tbl_salaryData[1400])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="24">
         <f>SUM(tbl_salaryData[1401])-C12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11">
         <f>SUM(C12:D12)</f>
@@ -12893,7 +12852,7 @@
       </c>
       <c r="C13" s="11">
         <f>C2*C$23+C3*C$24+C4*C$25+C5*C$26</f>
-        <v>109000000</v>
+        <v>89000000</v>
       </c>
       <c r="D13" s="11">
         <f>D2*D$23+D3*D$24+D4*D$25+D5*D$26</f>
@@ -12901,7 +12860,7 @@
       </c>
       <c r="E13" s="11">
         <f>SUM(C13:D13)</f>
-        <v>387600000</v>
+        <v>367600000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -12911,7 +12870,7 @@
       </c>
       <c r="C14" s="11">
         <f>C13*d_year1400Remain</f>
-        <v>654000000</v>
+        <v>534000000</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" ref="D14" si="1">D13*12</f>
@@ -12919,7 +12878,7 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" ref="E14:E15" si="2">SUM(C14:D14)</f>
-        <v>3997200000</v>
+        <v>3877200000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -12930,7 +12889,7 @@
       </c>
       <c r="C15" s="15">
         <f>ROUND(C13*d_AnnualSalary,0) / 12 * d_year1400Remain</f>
-        <v>970100000</v>
+        <v>792100000</v>
       </c>
       <c r="D15" s="15">
         <f>ROUND(D13*d_AnnualSalary,0)</f>
@@ -12938,7 +12897,7 @@
       </c>
       <c r="E15" s="16">
         <f t="shared" si="2"/>
-        <v>5929180000</v>
+        <v>5751180000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4"/>
@@ -13443,7 +13402,7 @@
       </c>
       <c r="C6" s="12">
         <f>d_staff1400*d_usagePerPersonPerMonth * d_year1400Remain</f>
-        <v>37800000</v>
+        <v>32400000</v>
       </c>
       <c r="D6" s="12">
         <f>d_staffTotal * d_usagePerPersonPerMonth * 12</f>
@@ -13451,7 +13410,7 @@
       </c>
       <c r="E6" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>189000000</v>
+        <v>183600000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -13502,7 +13461,7 @@
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8) * 10%</f>
-        <v>20380000</v>
+        <v>19840000</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D2:D8) * 10%</f>
@@ -13510,7 +13469,7 @@
       </c>
       <c r="E9" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>92300000</v>
+        <v>91760000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -13519,7 +13478,7 @@
       </c>
       <c r="C10" s="12">
         <f>SUBTOTAL(109,tbl_office[1400])</f>
-        <v>224180000</v>
+        <v>218240000</v>
       </c>
       <c r="D10" s="12">
         <f>SUBTOTAL(109,tbl_office[1401])</f>
@@ -13527,7 +13486,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUBTOTAL(109,tbl_office[جمع])</f>
-        <v>1015300000</v>
+        <v>1009360000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -13557,8 +13516,8 @@
   </sheetPr>
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -13658,51 +13617,51 @@
         <v>34000</v>
       </c>
       <c r="G2" s="38">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="I2" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.16280113721382614</v>
-      </c>
-      <c r="J2" s="50">
+        <v>0.13508144616607071</v>
+      </c>
+      <c r="J2" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>27200</v>
-      </c>
-      <c r="K2" s="48">
+        <v>42500</v>
+      </c>
+      <c r="K2" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="48">
+        <v>25</v>
+      </c>
+      <c r="L2" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
-      </c>
-      <c r="M2" s="48">
+        <v>50</v>
+      </c>
+      <c r="M2" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>80</v>
-      </c>
-      <c r="N2" s="48">
+        <v>100</v>
+      </c>
+      <c r="N2" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
-      </c>
-      <c r="O2" s="48">
+        <v>250</v>
+      </c>
+      <c r="O2" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>400</v>
-      </c>
-      <c r="P2" s="48">
+        <v>500</v>
+      </c>
+      <c r="P2" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>800</v>
-      </c>
-      <c r="Q2" s="48">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2000</v>
-      </c>
-      <c r="R2" s="48">
+        <v>2500</v>
+      </c>
+      <c r="R2" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -13725,51 +13684,51 @@
         <v>100000</v>
       </c>
       <c r="G3" s="38">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H3" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I3" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.11970671853957804</v>
-      </c>
-      <c r="J3" s="50">
+        <v>0.14302741358760429</v>
+      </c>
+      <c r="J3" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>20000</v>
-      </c>
-      <c r="K3" s="48">
+        <v>45000</v>
+      </c>
+      <c r="K3" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
-      </c>
-      <c r="L3" s="48">
+        <v>15</v>
+      </c>
+      <c r="L3" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
-      </c>
-      <c r="M3" s="48">
+        <v>30</v>
+      </c>
+      <c r="M3" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
-      </c>
-      <c r="N3" s="48">
+        <v>60</v>
+      </c>
+      <c r="N3" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
-      </c>
-      <c r="O3" s="48">
+        <v>150</v>
+      </c>
+      <c r="O3" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
-      </c>
-      <c r="P3" s="48">
+        <v>300</v>
+      </c>
+      <c r="P3" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>400</v>
-      </c>
-      <c r="Q3" s="48">
+        <v>600</v>
+      </c>
+      <c r="Q3" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
-      </c>
-      <c r="R3" s="48">
+        <v>1500</v>
+      </c>
+      <c r="R3" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -13792,51 +13751,51 @@
         <v>80000</v>
       </c>
       <c r="G4" s="38">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H4" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="I4" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.21547209337124046</v>
-      </c>
-      <c r="J4" s="50">
+        <v>0.20341676599125944</v>
+      </c>
+      <c r="J4" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>36000</v>
-      </c>
-      <c r="K4" s="48">
+        <v>64000</v>
+      </c>
+      <c r="K4" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>15</v>
-      </c>
-      <c r="L4" s="48">
+        <v>20</v>
+      </c>
+      <c r="L4" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>30</v>
-      </c>
-      <c r="M4" s="48">
+        <v>40</v>
+      </c>
+      <c r="M4" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>60</v>
-      </c>
-      <c r="N4" s="48">
+        <v>80</v>
+      </c>
+      <c r="N4" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>150</v>
-      </c>
-      <c r="O4" s="48">
+        <v>200</v>
+      </c>
+      <c r="O4" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>300</v>
-      </c>
-      <c r="P4" s="48">
+        <v>400</v>
+      </c>
+      <c r="P4" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>600</v>
-      </c>
-      <c r="Q4" s="48">
+        <v>800</v>
+      </c>
+      <c r="Q4" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1500</v>
-      </c>
-      <c r="R4" s="48">
+        <v>2000</v>
+      </c>
+      <c r="R4" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -13859,51 +13818,51 @@
         <v>3000000</v>
       </c>
       <c r="G5" s="39">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H5" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="I5" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.5912015561873407E-2</v>
-      </c>
-      <c r="J5" s="50">
+        <v>0.17163289630512515</v>
+      </c>
+      <c r="J5" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>6000</v>
-      </c>
-      <c r="K5" s="48">
+        <v>54000</v>
+      </c>
+      <c r="K5" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="48">
+        <v>3</v>
+      </c>
+      <c r="L5" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2</v>
-      </c>
-      <c r="M5" s="48">
+        <v>6</v>
+      </c>
+      <c r="M5" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>4</v>
-      </c>
-      <c r="N5" s="48">
+        <v>12</v>
+      </c>
+      <c r="N5" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
-      </c>
-      <c r="O5" s="48">
+        <v>30</v>
+      </c>
+      <c r="O5" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
-      </c>
-      <c r="P5" s="48">
+        <v>60</v>
+      </c>
+      <c r="P5" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
-      </c>
-      <c r="Q5" s="48">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
-      </c>
-      <c r="R5" s="48">
+        <v>300</v>
+      </c>
+      <c r="R5" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -13934,41 +13893,41 @@
       </c>
       <c r="I6" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.7408349543618137E-3</v>
-      </c>
-      <c r="J6" s="50">
+        <v>1.986491855383393E-3</v>
+      </c>
+      <c r="J6" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>625</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>0.25</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>1</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2.5</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>5</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>25</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>50</v>
       </c>
@@ -14001,41 +13960,41 @@
       </c>
       <c r="I7" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>7.4816699087236274E-3</v>
-      </c>
-      <c r="J7" s="50">
+        <v>3.9729837107667859E-3</v>
+      </c>
+      <c r="J7" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>1250</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2.5</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>5</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>25</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>50</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>250</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>500</v>
       </c>
@@ -14070,41 +14029,41 @@
       </c>
       <c r="I8" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>7.4816699087236274E-2</v>
-      </c>
-      <c r="J8" s="50">
+        <v>3.9729837107667858E-2</v>
+      </c>
+      <c r="J8" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>12500</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>25</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>50</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>250</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>500</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>1000</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2500</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>5000</v>
       </c>
@@ -14137,41 +14096,41 @@
       </c>
       <c r="I9" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>5.9853359269789019E-2</v>
-      </c>
-      <c r="J9" s="50">
+        <v>3.1783869686134288E-2</v>
+      </c>
+      <c r="J9" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>10000</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>20</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>40</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>200</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>400</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>1000</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2000</v>
       </c>
@@ -14204,41 +14163,41 @@
       </c>
       <c r="I10" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>1.4963339817447255E-2</v>
-      </c>
-      <c r="J10" s="50">
+        <v>7.9459674215335719E-3</v>
+      </c>
+      <c r="J10" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>2500</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2.5</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>5</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>25</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>50</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>250</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>500</v>
       </c>
@@ -14263,51 +14222,51 @@
         <v>500000</v>
       </c>
       <c r="G11" s="39">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H11" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I11" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.14963339817447255</v>
-      </c>
-      <c r="J11" s="50">
+        <v>0.17878426698450536</v>
+      </c>
+      <c r="J11" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>25000</v>
-      </c>
-      <c r="K11" s="48">
+        <v>56250</v>
+      </c>
+      <c r="K11" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="48">
+        <v>7.5</v>
+      </c>
+      <c r="L11" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
-      </c>
-      <c r="M11" s="48">
+        <v>15</v>
+      </c>
+      <c r="M11" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
-      </c>
-      <c r="N11" s="48">
+        <v>30</v>
+      </c>
+      <c r="N11" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
-      </c>
-      <c r="O11" s="48">
+        <v>75</v>
+      </c>
+      <c r="O11" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
-      </c>
-      <c r="P11" s="48">
+        <v>150</v>
+      </c>
+      <c r="P11" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
-      </c>
-      <c r="Q11" s="48">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>500</v>
-      </c>
-      <c r="R11" s="48">
+        <v>750</v>
+      </c>
+      <c r="R11" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -14338,41 +14297,41 @@
       </c>
       <c r="I12" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.11970671853957804</v>
-      </c>
-      <c r="J12" s="50">
+        <v>6.3567739372268575E-2</v>
+      </c>
+      <c r="J12" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>20000</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>20</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>40</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>200</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>400</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>1000</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2000</v>
       </c>
@@ -14405,41 +14364,41 @@
       </c>
       <c r="I13" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.5912015561873407E-2</v>
-      </c>
-      <c r="J13" s="50">
+        <v>1.9070321811680571E-2</v>
+      </c>
+      <c r="J13" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
         <v>6000</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>1</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>2</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>4</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>10</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>20</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>40</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
-      <c r="R13" s="48">
+      <c r="R13" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>200</v>
       </c>
@@ -14450,13 +14409,13 @@
       </c>
       <c r="D14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="46">
+      <c r="G14" s="42">
         <f>SUBTOTAL(101,tbl_pricing[درصد خرید])</f>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
       <c r="H14" s="45">
         <f>SUBTOTAL(109,tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>30260</v>
+        <v>46900</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="1"/>
@@ -14466,7 +14425,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="49"/>
+      <c r="Q14" s="48"/>
       <c r="R14" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
@@ -14476,7 +14435,7 @@
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14487,9 +14446,9 @@
       <c r="B18" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>1.7041666666666667E-2</v>
+        <v>2.0291666666666663E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -14499,26 +14458,26 @@
       <c r="B19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="53">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>30260</v>
+      <c r="C19" s="52">
+        <f>ROUND(SUM(tbl_pricing[سود به ازای هر بیزینس]), -3)</f>
+        <v>47000</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="C20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="C20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>83</v>
       </c>
       <c r="P23" s="40"/>
@@ -14530,15 +14489,15 @@
       </c>
       <c r="B24" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>8.5208333333333339</v>
+        <v>10.145833333333332</v>
       </c>
       <c r="C24" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>15130000</v>
+        <v>23500000</v>
       </c>
       <c r="D24" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>181560000</v>
+        <v>282000000</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="12"/>
@@ -14549,15 +14508,15 @@
       </c>
       <c r="B25" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>17.041666666666668</v>
+        <v>20.291666666666664</v>
       </c>
       <c r="C25" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>30260000</v>
+        <v>47000000</v>
       </c>
       <c r="D25" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>363120000</v>
+        <v>564000000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
@@ -14566,15 +14525,15 @@
       </c>
       <c r="B26" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>34.083333333333336</v>
+        <v>40.583333333333329</v>
       </c>
       <c r="C26" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>60520000</v>
+        <v>94000000</v>
       </c>
       <c r="D26" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>726240000</v>
+        <v>1128000000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
@@ -14583,15 +14542,15 @@
       </c>
       <c r="B27" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>85.208333333333329</v>
+        <v>101.45833333333331</v>
       </c>
       <c r="C27" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>151300000</v>
+        <v>235000000</v>
       </c>
       <c r="D27" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>1815600000</v>
+        <v>2820000000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
@@ -14600,15 +14559,15 @@
       </c>
       <c r="B28" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>170.41666666666666</v>
+        <v>202.91666666666663</v>
       </c>
       <c r="C28" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>302600000</v>
+        <v>470000000</v>
       </c>
       <c r="D28" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>3631200000</v>
+        <v>5640000000</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
@@ -14617,15 +14576,15 @@
       </c>
       <c r="B29" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>340.83333333333331</v>
+        <v>405.83333333333326</v>
       </c>
       <c r="C29" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>605200000</v>
+        <v>940000000</v>
       </c>
       <c r="D29" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>7262400000</v>
+        <v>11280000000</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
@@ -14634,15 +14593,15 @@
       </c>
       <c r="B30" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>852.08333333333337</v>
+        <v>1014.5833333333331</v>
       </c>
       <c r="C30" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>1513000000</v>
+        <v>2350000000</v>
       </c>
       <c r="D30" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>18156000000</v>
+        <v>28200000000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
@@ -14651,15 +14610,15 @@
       </c>
       <c r="B31" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>1704.1666666666667</v>
+        <v>2029.1666666666663</v>
       </c>
       <c r="C31" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>3026000000</v>
+        <v>4700000000</v>
       </c>
       <c r="D31" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>36312000000</v>
+        <v>56400000000</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
@@ -14668,15 +14627,15 @@
       </c>
       <c r="B32" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>3408.3333333333335</v>
+        <v>4058.3333333333326</v>
       </c>
       <c r="C32" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>6052000000</v>
+        <v>9400000000</v>
       </c>
       <c r="D32" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>72624000000</v>
+        <v>112800000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -14685,15 +14644,15 @@
       </c>
       <c r="B33" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>8520.8333333333339</v>
+        <v>10145.833333333332</v>
       </c>
       <c r="C33" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>15130000000</v>
+        <v>23500000000</v>
       </c>
       <c r="D33" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>181560000000</v>
+        <v>282000000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -14702,15 +14661,15 @@
       </c>
       <c r="B34" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>17041.666666666668</v>
+        <v>20291.666666666664</v>
       </c>
       <c r="C34" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>30260000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D34" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>363120000000</v>
+        <v>564000000000</v>
       </c>
     </row>
   </sheetData>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F44676-D778-434D-8A37-9C2A864E3D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562C19D1-5064-4626-9CF7-200148C78D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -49,15 +49,15 @@
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
     <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
-    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$21</definedName>
-    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$22</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$22</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$23</definedName>
     <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
     <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
     <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
     <definedName name="v_seriD">'مراحل سرمایه‌گذاری'!$K$6</definedName>
     <definedName name="v_seriE">'مراحل سرمایه‌گذاری'!$L$7</definedName>
     <definedName name="v_seriF">'مراحل سرمایه‌گذاری'!$M$8</definedName>
-    <definedName name="v_totalFund">'خلاصه و ارزیابی'!$C$15</definedName>
+    <definedName name="v_totalFund">'خلاصه و ارزیابی'!$C$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{225D4D8D-7B54-479E-8CEC-45A0AC103571}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{225D4D8D-7B54-479E-8CEC-45A0AC103571}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
       <text>
         <r>
           <rPr>
@@ -1140,80 +1140,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1830,6 +1756,80 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -8761,48 +8761,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9025,12 +9025,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="43" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="43" totalsRowDxfId="39">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="42" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="42" totalsRowDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9910,35 +9910,35 @@
       </c>
       <c r="C3" s="39">
         <f t="shared" ref="C3:J3" si="1">d_customerConvertRate</f>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="D3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="E3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="F3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="G3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="I3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="J3" s="39">
         <f t="shared" si="1"/>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9951,35 +9951,35 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:J4" si="2">ROUND(C2*d_customerConvertRate, 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="2"/>
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -10160,10 +10160,10 @@
   <sheetPr>
     <tabColor rgb="FFC80A5A"/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10652,21 +10652,15 @@
       <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="61">
-        <f>ROUND(SUM(tbl_sumary[[1400]:[1401]]),-7 )</f>
-        <v>15200000000</v>
-      </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
       <c r="F15" s="61"/>
@@ -10675,7 +10669,13 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="61"/>
+      <c r="B16" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="61">
+        <f>ROUND(SUM(tbl_sumary[[1400]:[1401]]),-7 )</f>
+        <v>15200000000</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
@@ -10701,317 +10701,318 @@
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="78" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="60">
-        <v>0.3</v>
-      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="55">
-        <v>2</v>
+        <v>133</v>
+      </c>
+      <c r="D22" s="60">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C24" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="61">
-        <f t="shared" ref="D23:I23" si="6">D11/(1+v_DiscountRate)^D2</f>
+      <c r="D24" s="61">
+        <f t="shared" ref="D24:I24" si="6">D11/(1+v_DiscountRate)^D2</f>
         <v>-3220056923.0769229</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E24" s="61">
         <f t="shared" si="6"/>
         <v>-2554331360.9467454</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F24" s="61">
         <f t="shared" si="6"/>
         <v>2234821119.708693</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G24" s="61">
         <f t="shared" si="6"/>
         <v>14252998949.616604</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H24" s="61">
         <f t="shared" si="6"/>
         <v>43837508394.987228</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I24" s="61">
         <f t="shared" si="6"/>
         <v>116038885603.66687</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C25" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="61">
-        <f t="shared" ref="D24:I24" si="7">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+      <c r="D25" s="61">
+        <f t="shared" ref="D25:I25" si="7">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
         <v>976153846.15384614</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E25" s="61">
         <f t="shared" si="7"/>
         <v>7175147928.9940825</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F25" s="61">
         <f t="shared" si="7"/>
         <v>17385935366.408733</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G25" s="61">
         <f t="shared" si="7"/>
         <v>42127458772.451935</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H25" s="61">
         <f t="shared" si="7"/>
         <v>102078073179.40274</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I25" s="61">
         <f t="shared" si="7"/>
         <v>247343023473.16815</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="61" t="str">
-        <f>IF(SUM($D$23:D23) + D24 &gt; 0, SUM($D$23:D23) + D24, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="E25" s="61">
-        <f>IF(SUM($D$23:E23) + E24 &gt; 0, SUM($D$23:E23) + E24, "-")</f>
-        <v>1400759644.9704142</v>
-      </c>
-      <c r="F25" s="61">
-        <f>IF(SUM($D$23:F23) + F24 &gt; 0, SUM($D$23:F23) + F24, "-")</f>
-        <v>13846368202.093758</v>
-      </c>
-      <c r="G25" s="61">
-        <f>IF(SUM($D$23:G23) + G24 &gt; 0, SUM($D$23:G23) + G24, "-")</f>
-        <v>52840890557.753563</v>
-      </c>
-      <c r="H25" s="61">
-        <f>IF(SUM($D$23:H23) + H24 &gt; 0, SUM($D$23:H23) + H24, "-")</f>
-        <v>156629013359.69159</v>
-      </c>
-      <c r="I25" s="61">
-        <f>IF(SUM($D$23:I23) + I24 &gt; 0, SUM($D$23:I23) + I24, "-")</f>
-        <v>417932849257.1239</v>
-      </c>
-    </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="61" t="str">
+        <f>IF(SUM($D$24:D24) + D25 &gt; 0, SUM($D$24:D24) + D25, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E26" s="61">
+        <f>IF(SUM($D$24:E24) + E25 &gt; 0, SUM($D$24:E24) + E25, "-")</f>
+        <v>1400759644.9704142</v>
+      </c>
+      <c r="F26" s="61">
+        <f>IF(SUM($D$24:F24) + F25 &gt; 0, SUM($D$24:F24) + F25, "-")</f>
+        <v>13846368202.093758</v>
+      </c>
+      <c r="G26" s="61">
+        <f>IF(SUM($D$24:G24) + G25 &gt; 0, SUM($D$24:G24) + G25, "-")</f>
+        <v>52840890557.753563</v>
+      </c>
+      <c r="H26" s="61">
+        <f>IF(SUM($D$24:H24) + H25 &gt; 0, SUM($D$24:H24) + H25, "-")</f>
+        <v>156629013359.69159</v>
+      </c>
+      <c r="I26" s="61">
+        <f>IF(SUM($D$24:I24) + I25 &gt; 0, SUM($D$24:I24) + I25, "-")</f>
+        <v>417932849257.1239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="76" t="str">
-        <f t="shared" ref="D26:I26" si="8">IFERROR(D25/d_toman2dollar, "-")</f>
+      <c r="D27" s="76" t="str">
+        <f t="shared" ref="D27:I27" si="8">IFERROR(D26/d_toman2dollar, "-")</f>
         <v>-</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E27" s="76">
         <f t="shared" si="8"/>
         <v>62255.984220907296</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F27" s="76">
         <f t="shared" si="8"/>
         <v>615394.14231527806</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G27" s="76">
         <f t="shared" si="8"/>
         <v>2348484.0247890474</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H27" s="76">
         <f t="shared" si="8"/>
         <v>6961289.4826529594</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I27" s="76">
         <f t="shared" si="8"/>
         <v>18574793.300316617</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-    </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="55" t="s">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="59" t="str">
+      <c r="D31" s="59" t="str">
         <f>IFERROR(IRR($D$9:D9), "-")</f>
         <v>-</v>
       </c>
-      <c r="E30" s="59" t="str">
+      <c r="E31" s="59" t="str">
         <f>IFERROR(IRR($D$9:E9), "-")</f>
         <v>-</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F31" s="59">
         <f>IFERROR(IRR($D$9:F9), "-")</f>
         <v>0.44609895656823384</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G31" s="59">
         <f>IFERROR(IRR($D$9:G9), "-")</f>
         <v>1.9851232488841473</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H31" s="59">
         <f>IFERROR(IRR($D$9:H9), "-")</f>
         <v>2.7051005864392832</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I31" s="59">
         <f>IFERROR(IRR($D$9:I9), "-")</f>
         <v>3.0681409092506842</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="55" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C32" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="59" t="str">
+      <c r="D32" s="59" t="str">
         <f>IFERROR(IRR($D$11:D11), "-")</f>
         <v>-</v>
       </c>
-      <c r="E31" s="59" t="str">
+      <c r="E32" s="59" t="str">
         <f>IFERROR(IRR($D$11:E11), "-")</f>
         <v>-</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F32" s="59">
         <f>IFERROR(IRR($D$11:F11), "-")</f>
         <v>-0.31612772463146843</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G32" s="59">
         <f>IFERROR(IRR($D$11:G11), "-")</f>
         <v>0.9963497571131692</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H32" s="59">
         <f>IFERROR(IRR($D$11:H11), "-")</f>
         <v>1.7029023538704346</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I32" s="59">
         <f>IFERROR(IRR($D$11:I11), "-")</f>
         <v>2.1026608341394457</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C33" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D33" s="61">
         <f>NPV(v_DiscountRate,D11)</f>
         <v>-3220056923.0769229</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E33" s="61">
         <f>NPV(v_DiscountRate,D11,E11)</f>
         <v>-5774388284.0236683</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11)</f>
         <v>-3539567164.3149748</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G33" s="61">
         <v>3</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11)</f>
         <v>54550940180.288857</v>
       </c>
-      <c r="I32" s="61">
+      <c r="I33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11,I11)</f>
         <v>170589825783.95572</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-    </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="74"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
+      <c r="E35" s="74"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" s="61"/>
@@ -11038,14 +11039,21 @@
       <c r="I39" s="61"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+    </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25"/>
@@ -11079,11 +11087,12 @@
     <row r="72" x14ac:dyDescent="0.25"/>
     <row r="73" x14ac:dyDescent="0.25"/>
     <row r="74" x14ac:dyDescent="0.25"/>
+    <row r="75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13517,7 +13526,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -13617,51 +13626,51 @@
         <v>34000</v>
       </c>
       <c r="G2" s="38">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>1700</v>
+        <v>2040</v>
       </c>
       <c r="I2" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.13508144616607071</v>
+        <v>0.18360459011475286</v>
       </c>
       <c r="J2" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>42500</v>
+        <v>61200</v>
       </c>
       <c r="K2" s="47">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" s="47">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M2" s="47">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N2" s="47">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O2" s="47">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P2" s="47">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q2" s="47">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="R2" s="47">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -13692,7 +13701,7 @@
       </c>
       <c r="I3" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.14302741358760429</v>
+        <v>0.1350033750843771</v>
       </c>
       <c r="J3" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13759,7 +13768,7 @@
       </c>
       <c r="I4" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.20341676599125944</v>
+        <v>0.19200480012000301</v>
       </c>
       <c r="J4" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13826,7 +13835,7 @@
       </c>
       <c r="I5" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.17163289630512515</v>
+        <v>0.16200405010125254</v>
       </c>
       <c r="J5" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13893,7 +13902,7 @@
       </c>
       <c r="I6" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>1.986491855383393E-3</v>
+        <v>1.8750468761719043E-3</v>
       </c>
       <c r="J6" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13960,7 +13969,7 @@
       </c>
       <c r="I7" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.9729837107667859E-3</v>
+        <v>3.7500937523438087E-3</v>
       </c>
       <c r="J7" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14029,7 +14038,7 @@
       </c>
       <c r="I8" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.9729837107667858E-2</v>
+        <v>3.7500937523438083E-2</v>
       </c>
       <c r="J8" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14096,7 +14105,7 @@
       </c>
       <c r="I9" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.1783869686134288E-2</v>
+        <v>3.000075001875047E-2</v>
       </c>
       <c r="J9" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14163,7 +14172,7 @@
       </c>
       <c r="I10" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>7.9459674215335719E-3</v>
+        <v>7.5001875046876174E-3</v>
       </c>
       <c r="J10" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14230,7 +14239,7 @@
       </c>
       <c r="I11" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.17878426698450536</v>
+        <v>0.1687542188554714</v>
       </c>
       <c r="J11" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14297,7 +14306,7 @@
       </c>
       <c r="I12" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>6.3567739372268575E-2</v>
+        <v>6.0001500037500939E-2</v>
       </c>
       <c r="J12" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14364,7 +14373,7 @@
       </c>
       <c r="I13" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>1.9070321811680571E-2</v>
+        <v>1.800045001125028E-2</v>
       </c>
       <c r="J13" s="49">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -14411,11 +14420,11 @@
       <c r="F14" s="12"/>
       <c r="G14" s="42">
         <f>SUBTOTAL(101,tbl_pricing[درصد خرید])</f>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="H14" s="45">
         <f>SUBTOTAL(109,tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>46900</v>
+        <v>47240</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="1"/>
@@ -14448,7 +14457,7 @@
       </c>
       <c r="C18" s="51">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0291666666666663E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -14489,7 +14498,7 @@
       </c>
       <c r="B24" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>10.145833333333332</v>
+        <v>10.5625</v>
       </c>
       <c r="C24" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14508,7 +14517,7 @@
       </c>
       <c r="B25" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>20.291666666666664</v>
+        <v>21.125</v>
       </c>
       <c r="C25" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14525,7 +14534,7 @@
       </c>
       <c r="B26" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>40.583333333333329</v>
+        <v>42.25</v>
       </c>
       <c r="C26" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14542,7 +14551,7 @@
       </c>
       <c r="B27" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>101.45833333333331</v>
+        <v>105.625</v>
       </c>
       <c r="C27" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14559,7 +14568,7 @@
       </c>
       <c r="B28" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>202.91666666666663</v>
+        <v>211.25</v>
       </c>
       <c r="C28" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14576,7 +14585,7 @@
       </c>
       <c r="B29" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>405.83333333333326</v>
+        <v>422.5</v>
       </c>
       <c r="C29" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14593,7 +14602,7 @@
       </c>
       <c r="B30" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>1014.5833333333331</v>
+        <v>1056.25</v>
       </c>
       <c r="C30" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14610,7 +14619,7 @@
       </c>
       <c r="B31" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2029.1666666666663</v>
+        <v>2112.5</v>
       </c>
       <c r="C31" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14627,7 +14636,7 @@
       </c>
       <c r="B32" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>4058.3333333333326</v>
+        <v>4225</v>
       </c>
       <c r="C32" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14644,7 +14653,7 @@
       </c>
       <c r="B33" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>10145.833333333332</v>
+        <v>10562.5</v>
       </c>
       <c r="C33" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
@@ -14661,7 +14670,7 @@
       </c>
       <c r="B34" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>20291.666666666664</v>
+        <v>21125</v>
       </c>
       <c r="C34" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562C19D1-5064-4626-9CF7-200148C78D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797F361-87FE-4F97-8D71-9369E717CE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="جزئیات منابع درآمد" sheetId="12" r:id="rId9"/>
     <sheet name="پیش‌بینی درآمد" sheetId="13" r:id="rId10"/>
     <sheet name="خلاصه و ارزیابی" sheetId="14" r:id="rId11"/>
-    <sheet name="مراحل سرمایه‌گذاری" sheetId="15" r:id="rId12"/>
+    <sheet name="درآمد جیبرس به تفکیک ماه" sheetId="16" r:id="rId12"/>
+    <sheet name="مراحل سرمایه‌گذاری" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -719,6 +720,66 @@
   </si>
   <si>
     <t>نرخ بازگشت سرمایه</t>
+  </si>
+  <si>
+    <t>سال</t>
+  </si>
+  <si>
+    <t>ماه</t>
+  </si>
+  <si>
+    <t>1400-02</t>
+  </si>
+  <si>
+    <t>1400-01</t>
+  </si>
+  <si>
+    <t>1399-12</t>
+  </si>
+  <si>
+    <t>1399-11</t>
+  </si>
+  <si>
+    <t>1399-10</t>
+  </si>
+  <si>
+    <t>1399-09</t>
+  </si>
+  <si>
+    <t>1399-07</t>
+  </si>
+  <si>
+    <t>1399-06</t>
+  </si>
+  <si>
+    <t>1399-05</t>
+  </si>
+  <si>
+    <t>1399-04</t>
+  </si>
+  <si>
+    <t>1399-03</t>
+  </si>
+  <si>
+    <t>1399-02</t>
+  </si>
+  <si>
+    <t>1399-01</t>
+  </si>
+  <si>
+    <t>سال و ماه</t>
+  </si>
+  <si>
+    <t>مبلغ درآمد کسب شده</t>
+  </si>
+  <si>
+    <t>به تفکیک سال</t>
+  </si>
+  <si>
+    <t>جمع درآمد</t>
+  </si>
+  <si>
+    <t>فصل</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1011,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1091,10 +1152,13 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1102,7 +1166,1964 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="231">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1810,7 +3831,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1829,7 +3849,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1848,6 +3867,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1866,60 +3901,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1938,8 +3935,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1958,8 +3969,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1978,8 +4001,48 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1998,8 +4061,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2018,8 +4095,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2038,8 +4129,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2058,8 +4163,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2078,8 +4195,169 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2098,8 +4376,21 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2118,8 +4409,21 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2138,8 +4442,19 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2154,1889 +4469,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -8736,20 +9168,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="230" dataDxfId="229" totalsRowDxfId="228">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="207" totalsRowDxfId="206">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="227" totalsRowDxfId="226">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="201" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="200" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="199" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="223" totalsRowDxfId="222"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="221" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="220" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="219" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="198" totalsRowDxfId="197" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="218" totalsRowDxfId="217" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8758,51 +9190,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8811,17 +9243,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="128" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="104" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="103">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="126">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="102">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="125">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="101">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8830,33 +9262,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="98">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="119">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="95">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="118">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="94">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="117">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="93">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="116">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="92">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="115">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="91">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="114">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="90">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="89">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8865,93 +9297,153 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:J13" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="86">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="107">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="83">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="106">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="82">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="105">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="81">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="98">
-  <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Percent">
-      <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:F15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F15" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="7">
+      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="2">
+      <calculatedColumnFormula>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="17" dataDxfId="18">
+  <autoFilter ref="J1:K3" xr:uid="{97006F0C-AD59-4C54-9C49-941C006952C3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K3">
+    <sortCondition descending="1" ref="J1:J3"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:Q6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="N1:Q6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q6">
+    <sortCondition descending="1" ref="N2:N6"/>
+    <sortCondition descending="1" ref="O2:O6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="11">
+      <calculatedColumnFormula>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="10">
+      <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+  <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent">
+      <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8960,27 +9452,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="216" dataDxfId="215">
   <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="214"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="212" dataDxfId="211">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="190" totalsRowDxfId="189">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="210" totalsRowDxfId="209">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="188" totalsRowDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="186" totalsRowDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="182">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="202">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8989,31 +9481,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="179">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="199">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="198"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="173">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="193">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="171"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="170"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="169">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="192"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="191"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="190"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="189">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9022,34 +9514,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="188" dataDxfId="187" totalsRowDxfId="186">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="43" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="185" totalsRowDxfId="184">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="42" totalsRowDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="163"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="161" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="175"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="174"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="173" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="172">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="159">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="171">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="158">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="170">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9058,16 +9550,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156" totalsRowDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="169" dataDxfId="168" totalsRowDxfId="167">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9076,16 +9568,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10162,8 +10654,8 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10626,27 +11118,27 @@
         <v>195</v>
       </c>
       <c r="D13" s="59">
-        <f>D12/v_totalFund</f>
+        <f t="shared" ref="D13:I13" si="6">D12/v_totalFund</f>
         <v>-0.27539960526315788</v>
       </c>
       <c r="E13" s="59">
-        <f>E12/v_totalFund</f>
+        <f t="shared" si="6"/>
         <v>-0.55940092105263162</v>
       </c>
       <c r="F13" s="59">
-        <f>F12/v_totalFund</f>
+        <f t="shared" si="6"/>
         <v>-0.23638105263157894</v>
       </c>
       <c r="G13" s="59">
-        <f>G12/v_totalFund</f>
+        <f t="shared" si="6"/>
         <v>2.4417762039473678</v>
       </c>
       <c r="H13" s="59">
-        <f>H12/v_totalFund</f>
+        <f t="shared" si="6"/>
         <v>13.15003936480263</v>
       </c>
       <c r="I13" s="59">
-        <f>I12/v_totalFund</f>
+        <f t="shared" si="6"/>
         <v>49.998561560970387</v>
       </c>
       <c r="J13" s="59"/>
@@ -10712,16 +11204,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
@@ -10753,27 +11245,27 @@
         <v>135</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" ref="D24:I24" si="6">D11/(1+v_DiscountRate)^D2</f>
+        <f t="shared" ref="D24:I24" si="7">D11/(1+v_DiscountRate)^D2</f>
         <v>-3220056923.0769229</v>
       </c>
       <c r="E24" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2554331360.9467454</v>
       </c>
       <c r="F24" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2234821119.708693</v>
       </c>
       <c r="G24" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14252998949.616604</v>
       </c>
       <c r="H24" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43837508394.987228</v>
       </c>
       <c r="I24" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116038885603.66687</v>
       </c>
     </row>
@@ -10785,27 +11277,27 @@
         <v>179</v>
       </c>
       <c r="D25" s="61">
-        <f t="shared" ref="D25:I25" si="7">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <f t="shared" ref="D25:I25" si="8">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
         <v>976153846.15384614</v>
       </c>
       <c r="E25" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7175147928.9940825</v>
       </c>
       <c r="F25" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17385935366.408733</v>
       </c>
       <c r="G25" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42127458772.451935</v>
       </c>
       <c r="H25" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>102078073179.40274</v>
       </c>
       <c r="I25" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>247343023473.16815</v>
       </c>
     </row>
@@ -10846,27 +11338,27 @@
         <v>189</v>
       </c>
       <c r="D27" s="76" t="str">
-        <f t="shared" ref="D27:I27" si="8">IFERROR(D26/d_toman2dollar, "-")</f>
+        <f t="shared" ref="D27:I27" si="9">IFERROR(D26/d_toman2dollar, "-")</f>
         <v>-</v>
       </c>
       <c r="E27" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62255.984220907296</v>
       </c>
       <c r="F27" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>615394.14231527806</v>
       </c>
       <c r="G27" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2348484.0247890474</v>
       </c>
       <c r="H27" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6961289.4826529594</v>
       </c>
       <c r="I27" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18574793.300316617</v>
       </c>
     </row>
@@ -10887,16 +11379,16 @@
       <c r="I29" s="61"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="55" t="s">
@@ -11005,14 +11497,14 @@
       <c r="E35" s="74"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" s="61"/>
@@ -11104,6 +11596,545 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB18F9-F9BE-4D2E-8E8A-5E7D56BD756A}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="81">
+        <v>3041620</v>
+      </c>
+      <c r="D2" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1400</v>
+      </c>
+      <c r="E2" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1400</v>
+      </c>
+      <c r="K2" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</f>
+        <v>3803920</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1400</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
+        <v>1400-Q1</v>
+      </c>
+      <c r="Q2" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
+        <v>3803920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <f>ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="81">
+        <v>762300</v>
+      </c>
+      <c r="D3" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1400</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1399</v>
+      </c>
+      <c r="K3" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</f>
+        <v>10551565</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1399</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
+        <v>1399-Q4</v>
+      </c>
+      <c r="Q3" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
+        <v>5304600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A15" si="0">ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="81">
+        <v>752600</v>
+      </c>
+      <c r="D4" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E4" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="82">
+        <f>SUBTOTAL(109,tbl_jibres_revenue_year[جمع درآمد])</f>
+        <v>14355485</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1399</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
+        <v>1399-Q3</v>
+      </c>
+      <c r="Q4" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
+        <v>1018000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="81">
+        <v>726000</v>
+      </c>
+      <c r="D5" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E5" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1399</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
+        <v>1399-Q2</v>
+      </c>
+      <c r="Q5" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
+        <v>3835000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="81">
+        <v>3826000</v>
+      </c>
+      <c r="D6" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E6" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1399</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
+        <v>1399-Q1</v>
+      </c>
+      <c r="Q6" s="82">
+        <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
+        <v>393965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="81">
+        <v>402000</v>
+      </c>
+      <c r="D7" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E7" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="81">
+        <v>616000</v>
+      </c>
+      <c r="D8" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E8" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="81">
+        <v>84000</v>
+      </c>
+      <c r="D9" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E9" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="81">
+        <v>2960000</v>
+      </c>
+      <c r="D10" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E10" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="81">
+        <v>791000</v>
+      </c>
+      <c r="D11" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E11" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="81">
+        <v>160000</v>
+      </c>
+      <c r="D12" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E12" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="81">
+        <v>101965</v>
+      </c>
+      <c r="D13" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E13" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="81">
+        <v>132000</v>
+      </c>
+      <c r="D14" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1399</v>
+      </c>
+      <c r="E14" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="80"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="80"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="80"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="80"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="80"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="80"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="80"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="80"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="80"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="80"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="80"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="80"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="80"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C17DC-A059-427A-B1E3-F4E95301E578}">
   <dimension ref="A1:R39"/>
   <sheetViews>
@@ -12305,7 +13336,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="78">
         <v>22500</v>
       </c>
     </row>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797F361-87FE-4F97-8D71-9369E717CE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDE7A83-9F81-4A18-9779-A275B3CB70A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -11600,7 +11600,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDE7A83-9F81-4A18-9779-A275B3CB70A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5268EBE-EDFC-42EC-916D-0679A3C5F6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Earnings before interest, tax, depreciation and amortization</t>
         </r>
@@ -94,6 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Post-money valuation</t>
         </r>
@@ -106,6 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Post-money valuation</t>
         </r>
@@ -119,6 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Internal rate of return</t>
         </r>
@@ -129,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="219">
   <si>
     <t>#</t>
   </si>
@@ -764,9 +768,6 @@
     <t>1399-02</t>
   </si>
   <si>
-    <t>1399-01</t>
-  </si>
-  <si>
     <t>سال و ماه</t>
   </si>
   <si>
@@ -780,6 +781,15 @@
   </si>
   <si>
     <t>فصل</t>
+  </si>
+  <si>
+    <t>1399-08</t>
+  </si>
+  <si>
+    <t>درصد رشد نسبت به فصل قبل</t>
+  </si>
+  <si>
+    <t>رشد نسبت به ماه قبل</t>
   </si>
 </sst>
 </file>
@@ -855,12 +865,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1153,12 +1165,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1166,7 +1178,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="231">
+  <dxfs count="238">
     <dxf>
       <font>
         <b val="0"/>
@@ -1184,7 +1196,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1203,6 +1214,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1221,7 +1233,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1240,7 +1251,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1259,7 +1269,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1278,7 +1287,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1297,6 +1306,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1315,6 +1325,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1333,6 +1345,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1351,6 +1365,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1369,7 +1385,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1389,6 +1406,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1407,6 +1425,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1425,6 +1445,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1443,6 +1465,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1461,6 +1485,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1479,7 +1505,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1498,6 +1525,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1516,6 +1545,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1534,6 +1565,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1572,6 +1605,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1712,7 +1765,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1732,6 +1784,101 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1752,7 +1899,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1772,6 +1919,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1792,7 +1959,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1832,7 +1999,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1872,7 +2039,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1912,7 +2079,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1952,7 +2119,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1972,6 +2139,84 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1992,6 +2237,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2030,6 +2276,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2106,7 +2353,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2126,7 +2372,9 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2146,7 +2394,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2166,8 +2413,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2186,8 +2432,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2206,8 +2451,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2226,8 +2470,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2246,8 +2488,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2266,8 +2506,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2286,8 +2524,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2306,8 +2542,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2326,8 +2561,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2346,8 +2580,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2366,7 +2598,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2385,8 +2616,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2405,7 +2634,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2424,8 +2652,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2444,8 +2671,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2464,8 +2690,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2484,7 +2709,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2503,8 +2728,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2523,7 +2746,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2542,7 +2764,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2561,86 +2782,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6908,6 +7049,1372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0">
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>درآمد</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0">
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>جیبرس به تفکیک فصل</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>جمع درآمد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$P$2:$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1399-Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1399-Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399-Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1399-Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400-Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17131965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50851000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131281000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83304600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121929520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A347-49DD-83A8-676904190066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1042061552"/>
+        <c:axId val="1042064464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1042061552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042064464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042064464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042061552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr rtl="1">
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>مقایسه درآمد فصل اول ۱۳۹۹ با فصل اول ۱۴۰۰</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>جمع درآمد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('درآمد جیبرس به تفکیک ماه'!$P$2,'درآمد جیبرس به تفکیک ماه'!$P$6)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1399-Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400-Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('درآمد جیبرس به تفکیک ماه'!$Q$2,'درآمد جیبرس به تفکیک ماه'!$Q$6)</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17131965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121929520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8078-4601-8103-AC2654F1EF7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1286749520"/>
+        <c:axId val="1286749104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1286749520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286749104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1286749104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286749520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" spc="0" baseline="0">
+                <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>درآمد جیبرس به تفکیک ماه</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="IRANSansX Black" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>مبلغ درآمد کسب شده</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1399-02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1399-03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399-04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1399-05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1399-06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1399-07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1399-08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1399-09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1399-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1399-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1399-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400-01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5101965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12030000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19502000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14265000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17084000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35616000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35513000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60152000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28826000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18726000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35752600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55762300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66167220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F9C-412F-BBA1-C6943516BB94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1215134176"/>
+        <c:axId val="1215112128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1215134176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215112128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1215112128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215134176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>IRT</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" baseline="0"/>
+                    <a:t> </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Millions</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6966,6 +8473,24 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9006,6 +10531,1526 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9167,21 +12212,134 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4A7F29-7B93-4EAF-80A1-EF94209389C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D34988-AFF6-4CF4-BD9F-C7A78D648F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66836738-F5A9-4020-B7FD-0963594D72EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="230" dataDxfId="229" totalsRowDxfId="228">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="237" dataDxfId="236" totalsRowDxfId="235">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="227" totalsRowDxfId="226">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="234" totalsRowDxfId="233">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="221" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="220" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="219" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="228" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="227" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="226" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="218" totalsRowDxfId="217" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="225" totalsRowDxfId="224" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9190,51 +12348,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="124" totalsRowDxfId="123">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9243,17 +12401,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="104" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="111" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="110">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="102">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="109">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="101">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="108">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9262,33 +12420,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="105">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="95">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="102">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="94">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="101">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="100">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="92">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="99">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="91">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="98">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="90">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="89">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="96">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9297,49 +12455,55 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:J13" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="93">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="83">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="90">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="82">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="89">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="81">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="88">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:F15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F15" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G14" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:G14" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+    <sortCondition ref="B1:B14"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="81">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="79" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="78">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="77">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="76">
       <calculatedColumnFormula>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="6" dataCellStyle="Percent">
+      <calculatedColumnFormula>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9347,14 +12511,14 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="17" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="J1:K3" xr:uid="{97006F0C-AD59-4C54-9C49-941C006952C3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K3">
     <sortCondition descending="1" ref="J1:J3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9363,20 +12527,23 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:Q6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
-  <autoFilter ref="N1:Q6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q6">
-    <sortCondition descending="1" ref="N2:N6"/>
-    <sortCondition descending="1" ref="O2:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="N1:R6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:R6">
+    <sortCondition ref="N2:N6"/>
+    <sortCondition ref="O2:O6"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="11">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="66" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="65" totalsRowDxfId="2">
       <calculatedColumnFormula>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="64" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9384,66 +12551,66 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9452,27 +12619,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="216" dataDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222">
   <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="213"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="221"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="210" totalsRowDxfId="209">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="216">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="208" totalsRowDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="206" totalsRowDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="204" totalsRowDxfId="203"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="202">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="209">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9481,31 +12648,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="208" dataDxfId="207">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="199">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="206">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="205"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="193">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="200">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="192"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="190"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="189">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="199"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="198"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="197"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="196">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9514,34 +12681,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="188" dataDxfId="187" totalsRowDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="195" dataDxfId="194" totalsRowDxfId="193">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="185" totalsRowDxfId="184">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="192" totalsRowDxfId="191">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="186" totalsRowDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="175"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="173" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="172">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="182"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="180" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="179">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="171">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="178">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="170">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="177">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9550,16 +12717,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="169" dataDxfId="168" totalsRowDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="176" dataDxfId="175" totalsRowDxfId="174">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9568,16 +12735,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10655,7 +13822,7 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11204,16 +14371,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
@@ -11379,16 +14546,16 @@
       <c r="I29" s="61"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="55" t="s">
@@ -11497,14 +14664,14 @@
       <c r="E35" s="74"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" s="61"/>
@@ -11597,10 +14764,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB18F9-F9BE-4D2E-8E8A-5E7D56BD756A}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -11610,7 +14777,8 @@
     <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="7" max="7" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="1"/>
@@ -11618,18 +14786,19 @@
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>197</v>
@@ -11638,41 +14807,47 @@
         <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="81">
-        <v>3041620</v>
+        <v>210</v>
+      </c>
+      <c r="C2" s="80">
+        <v>5101965</v>
       </c>
       <c r="D2" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E2" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
@@ -11682,83 +14857,99 @@
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>1</v>
       </c>
+      <c r="G2" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</f>
+        <v>0.42410349127182045</v>
+      </c>
       <c r="J2" s="1">
         <v>1400</v>
       </c>
-      <c r="K2" s="82">
+      <c r="K2" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</f>
-        <v>3803920</v>
+        <v>121929520</v>
       </c>
       <c r="N2" s="1">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
-        <v>1400-Q1</v>
-      </c>
-      <c r="Q2" s="82">
+        <v>1399-Q1</v>
+      </c>
+      <c r="Q2" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>3803920</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>17131965</v>
+      </c>
+      <c r="R2" s="38">
+        <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</f>
+        <v>0.33690517393954889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="81">
-        <v>762300</v>
+        <v>209</v>
+      </c>
+      <c r="C3" s="80">
+        <v>12030000</v>
       </c>
       <c r="D3" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E3" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>1</v>
       </c>
+      <c r="G3" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C4, "-")</f>
+        <v>0.61685980925033335</v>
+      </c>
       <c r="J3" s="1">
         <v>1399</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</f>
-        <v>10551565</v>
+        <v>282568565</v>
       </c>
       <c r="N3" s="1">
         <v>1399</v>
       </c>
       <c r="O3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
-        <v>1399-Q4</v>
-      </c>
-      <c r="Q3" s="82">
+        <v>1399-Q2</v>
+      </c>
+      <c r="Q3" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>5304600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>50851000</v>
+      </c>
+      <c r="R3" s="38">
+        <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q4, "-")</f>
+        <v>0.38734470334625726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A15" si="0">ROW(A3)</f>
+        <f>ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="81">
-        <v>752600</v>
+        <v>208</v>
+      </c>
+      <c r="C4" s="80">
+        <v>19502000</v>
       </c>
       <c r="D4" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11766,18 +14957,22 @@
       </c>
       <c r="E4" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G4" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C5, "-")</f>
+        <v>1.3671223273746933</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="81">
         <f>SUBTOTAL(109,tbl_jibres_revenue_year[جمع درآمد])</f>
-        <v>14355485</v>
+        <v>404498085</v>
       </c>
       <c r="N4" s="1">
         <v>1399</v>
@@ -11789,21 +14984,25 @@
         <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
         <v>1399-Q3</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>1018000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>131281000</v>
+      </c>
+      <c r="R4" s="38">
+        <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q5, "-")</f>
+        <v>1.5759153756215143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="81">
-        <v>726000</v>
+        <v>207</v>
+      </c>
+      <c r="C5" s="80">
+        <v>14265000</v>
       </c>
       <c r="D5" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11811,37 +15010,45 @@
       </c>
       <c r="E5" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C6, "-")</f>
+        <v>0.83499180519784599</v>
       </c>
       <c r="N5" s="1">
         <v>1399</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="str">
         <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
-        <v>1399-Q2</v>
-      </c>
-      <c r="Q5" s="82">
+        <v>1399-Q4</v>
+      </c>
+      <c r="Q5" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>3835000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+        <v>83304600</v>
+      </c>
+      <c r="R5" s="38">
+        <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q6, "-")</f>
+        <v>0.68321928930746223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A5)</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="81">
-        <v>3826000</v>
+        <v>206</v>
+      </c>
+      <c r="C6" s="80">
+        <v>17084000</v>
       </c>
       <c r="D6" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11849,37 +15056,45 @@
       </c>
       <c r="E6" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C7, "-")</f>
+        <v>0.47967205750224617</v>
       </c>
       <c r="N6" s="1">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="str">
         <f>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</f>
-        <v>1399-Q1</v>
-      </c>
-      <c r="Q6" s="82">
+        <v>1400-Q1</v>
+      </c>
+      <c r="Q6" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>393965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>121929520</v>
+      </c>
+      <c r="R6" s="38" t="str">
+        <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q7, "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A6)</f>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="81">
-        <v>402000</v>
+        <v>205</v>
+      </c>
+      <c r="C7" s="80">
+        <v>35616000</v>
       </c>
       <c r="D7" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11887,23 +15102,35 @@
       </c>
       <c r="E7" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G7" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C8, "-")</f>
+        <v>1.0029003463520401</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="38">
+        <f>SUBTOTAL(101,Table18[درصد رشد نسبت به فصل قبل])</f>
+        <v>0.74584613555369572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="81">
-        <v>616000</v>
+        <v>216</v>
+      </c>
+      <c r="C8" s="80">
+        <v>35513000</v>
       </c>
       <c r="D8" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11911,23 +15138,27 @@
       </c>
       <c r="E8" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G8" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C9, "-")</f>
+        <v>0.59038768453251766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A8)</f>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="81">
-        <v>84000</v>
+        <v>204</v>
+      </c>
+      <c r="C9" s="80">
+        <v>60152000</v>
       </c>
       <c r="D9" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11935,23 +15166,27 @@
       </c>
       <c r="E9" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C10, "-")</f>
+        <v>2.0867272601123985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A9)</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="81">
-        <v>2960000</v>
+        <v>203</v>
+      </c>
+      <c r="C10" s="80">
+        <v>28826000</v>
       </c>
       <c r="D10" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11959,23 +15194,27 @@
       </c>
       <c r="E10" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C11, "-")</f>
+        <v>1.5393570436825803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A10)</f>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="81">
-        <v>791000</v>
+        <v>202</v>
+      </c>
+      <c r="C11" s="80">
+        <v>18726000</v>
       </c>
       <c r="D11" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -11983,23 +15222,27 @@
       </c>
       <c r="E11" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C12, "-")</f>
+        <v>0.52376610372392496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A11)</f>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="81">
-        <v>160000</v>
+        <v>201</v>
+      </c>
+      <c r="C12" s="80">
+        <v>35752600</v>
       </c>
       <c r="D12" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -12007,129 +15250,124 @@
       </c>
       <c r="E12" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C13, "-")</f>
+        <v>0.64116078425746426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A12)</f>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="81">
-        <v>101965</v>
+        <v>200</v>
+      </c>
+      <c r="C13" s="80">
+        <v>55762300</v>
       </c>
       <c r="D13" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E13" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G13" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C14, "-")</f>
+        <v>0.8427481160610949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="81">
-        <v>132000</v>
+        <v>199</v>
+      </c>
+      <c r="C14" s="80">
+        <v>66167220</v>
       </c>
       <c r="D14" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="1">
-        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="80"/>
+      <c r="G14" s="38" t="str">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C15, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="79"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="79"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="80"/>
+      <c r="B17" s="79"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="80"/>
+      <c r="B18" s="79"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="80"/>
+      <c r="B19" s="79"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="80"/>
+      <c r="B20" s="79"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="80"/>
+      <c r="B21" s="79"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="80"/>
+      <c r="B22" s="79"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="80"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="80"/>
+      <c r="B24" s="79"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="80"/>
+      <c r="B25" s="79"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="80"/>
+      <c r="B26" s="79"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="80"/>
+      <c r="B27" s="79"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="80"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="80"/>
+      <c r="B28" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/business/business-plan/Jibres-Financial-Projection-v1.xlsx
+++ b/business/business-plan/Jibres-Financial-Projection-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5268EBE-EDFC-42EC-916D-0679A3C5F6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C43A3-24D4-4052-9723-3CD96FE67235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="221">
   <si>
     <t>#</t>
   </si>
@@ -790,6 +790,12 @@
   </si>
   <si>
     <t>رشد نسبت به ماه قبل</t>
+  </si>
+  <si>
+    <t>1399-01</t>
+  </si>
+  <si>
+    <t>1398-12</t>
   </si>
 </sst>
 </file>
@@ -1196,6 +1202,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1214,7 +1222,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1233,6 +1242,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1251,6 +1262,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1269,6 +1282,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1287,7 +1302,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1306,7 +1322,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1345,6 +1362,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1605,7 +1642,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1625,6 +1661,101 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1645,7 +1776,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1665,6 +1796,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1685,7 +1836,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1725,7 +1876,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1765,6 +1916,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1784,6 +1936,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1803,6 +1956,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1822,6 +1976,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1841,6 +1996,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1879,6 +2035,65 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1899,7 +2114,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1919,6 +2134,25 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1939,7 +2173,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1959,7 +2192,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1979,7 +2211,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1999,7 +2230,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2019,7 +2249,9 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2039,7 +2271,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2059,8 +2290,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2079,8 +2309,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2099,8 +2327,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2119,8 +2346,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2139,7 +2365,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2158,8 +2384,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2178,7 +2402,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2197,8 +2421,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2217,8 +2439,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2237,8 +2457,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2257,7 +2475,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2276,8 +2493,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2296,7 +2511,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2315,7 +2529,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2334,7 +2548,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2353,7 +2567,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2372,10 +2585,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2394,7 +2603,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2413,7 +2621,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2432,208 +2639,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -7268,16 +7274,16 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17131965</c:v>
+                  <c:v>24623965</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50851000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131281000</c:v>
+                  <c:v>118281000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83304600</c:v>
+                  <c:v>101304600</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>121929520</c:v>
@@ -7692,7 +7698,7 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17131965</c:v>
+                  <c:v>24623965</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>121929520</c:v>
@@ -7906,10 +7912,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7942,7 +7948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7994,7 +8000,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -8004,69 +8011,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="15875" cap="rnd">
+              <a:ln w="12700" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C80A5A"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8076,46 +8027,52 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'درآمد جیبرس به تفکیک ماه'!$B$2:$B$14</c:f>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$B$2:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1398-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1399-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1399-02</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1399-03</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1399-04</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1399-05</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1399-06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1399-07</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1399-08</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1399-09</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1399-10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1399-11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1399-12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1400-01</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1400-02</c:v>
                 </c:pt>
               </c:strCache>
@@ -8123,47 +8080,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'درآمد جیبرس به تفکیک ماه'!$C$2:$C$14</c:f>
+              <c:f>'درآمد جیبرس به تفکیک ماه'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * "-"#,##0_)</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>170200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7492000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5101965</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>12030000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>19502000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>14265000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>17084000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>35616000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>35513000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>60152000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28826000</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>18726000</c:v>
+                  <c:v>47152000</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>21826000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43726000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>35752600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>55762300</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>66167220</c:v>
                 </c:pt>
               </c:numCache>
@@ -8243,6 +8206,7 @@
         <c:axId val="1215112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8486,8 +8450,29 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -12290,13 +12275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12482,10 +12467,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G14" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:G14" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-    <sortCondition ref="B1:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G16" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:G16" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="81">
@@ -12502,7 +12487,7 @@
     <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="76">
       <calculatedColumnFormula>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="75" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12511,14 +12496,14 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="J1:K3" xr:uid="{97006F0C-AD59-4C54-9C49-941C006952C3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K3">
     <sortCondition descending="1" ref="J1:J3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12527,22 +12512,22 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="N1:R6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:R6">
     <sortCondition ref="N2:N6"/>
     <sortCondition ref="O2:O6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="66" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="65" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="64" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12551,66 +12536,66 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14764,10 +14749,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB18F9-F9BE-4D2E-8E8A-5E7D56BD756A}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -14840,26 +14825,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C2" s="80">
-        <v>5101965</v>
-      </c>
-      <c r="D2" s="1">
+        <v>170200</v>
+      </c>
+      <c r="D2" s="18">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1399</v>
-      </c>
-      <c r="E2" s="1">
+        <v>1398</v>
+      </c>
+      <c r="E2" s="18">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="18">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="38">
-        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</f>
-        <v>0.42410349127182045</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="38" t="str">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/#REF!, "-")</f>
+        <v>-</v>
       </c>
       <c r="J2" s="1">
         <v>1400</v>
@@ -14880,11 +14865,11 @@
       </c>
       <c r="Q2" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>17131965</v>
+        <v>24623965</v>
       </c>
       <c r="R2" s="38">
         <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</f>
-        <v>0.33690517393954889</v>
+        <v>0.48423757644884075</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -14893,33 +14878,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C3" s="80">
-        <v>12030000</v>
-      </c>
-      <c r="D3" s="1">
+        <v>7492000</v>
+      </c>
+      <c r="D3" s="18">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
         <v>1399</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="18">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
         <v>1</v>
       </c>
       <c r="G3" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C4, "-")</f>
-        <v>0.61685980925033335</v>
+        <v>1.4684538212237834</v>
       </c>
       <c r="J3" s="1">
         <v>1399</v>
       </c>
       <c r="K3" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</f>
-        <v>282568565</v>
+        <v>295060565</v>
       </c>
       <c r="N3" s="1">
         <v>1399</v>
@@ -14937,7 +14922,7 @@
       </c>
       <c r="R3" s="38">
         <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q4, "-")</f>
-        <v>0.38734470334625726</v>
+        <v>0.42991689282302314</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -14946,10 +14931,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C4" s="80">
-        <v>19502000</v>
+        <v>5101965</v>
       </c>
       <c r="D4" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -14957,22 +14942,22 @@
       </c>
       <c r="E4" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C5, "-")</f>
-        <v>1.3671223273746933</v>
+        <v>0.42410349127182045</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="81">
         <f>SUBTOTAL(109,tbl_jibres_revenue_year[جمع درآمد])</f>
-        <v>404498085</v>
+        <v>416990085</v>
       </c>
       <c r="N4" s="1">
         <v>1399</v>
@@ -14986,11 +14971,11 @@
       </c>
       <c r="Q4" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>131281000</v>
+        <v>118281000</v>
       </c>
       <c r="R4" s="38">
         <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q5, "-")</f>
-        <v>1.5759153756215143</v>
+        <v>1.1675777802784868</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -14999,10 +14984,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C5" s="80">
-        <v>14265000</v>
+        <v>12030000</v>
       </c>
       <c r="D5" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15010,15 +14995,15 @@
       </c>
       <c r="E5" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C6, "-")</f>
-        <v>0.83499180519784599</v>
+        <v>0.61685980925033335</v>
       </c>
       <c r="N5" s="1">
         <v>1399</v>
@@ -15032,11 +15017,11 @@
       </c>
       <c r="Q5" s="81">
         <f>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</f>
-        <v>83304600</v>
+        <v>101304600</v>
       </c>
       <c r="R5" s="38">
         <f>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q6, "-")</f>
-        <v>0.68321928930746223</v>
+        <v>0.83084555733509002</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -15045,10 +15030,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" s="80">
-        <v>17084000</v>
+        <v>19502000</v>
       </c>
       <c r="D6" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15056,7 +15041,7 @@
       </c>
       <c r="E6" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
@@ -15064,7 +15049,7 @@
       </c>
       <c r="G6" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C7, "-")</f>
-        <v>0.47967205750224617</v>
+        <v>1.3671223273746933</v>
       </c>
       <c r="N6" s="1">
         <v>1400</v>
@@ -15091,10 +15076,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C7" s="80">
-        <v>35616000</v>
+        <v>14265000</v>
       </c>
       <c r="D7" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15102,15 +15087,15 @@
       </c>
       <c r="E7" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C8, "-")</f>
-        <v>1.0029003463520401</v>
+        <v>0.83499180519784599</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1</v>
@@ -15118,7 +15103,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="38">
         <f>SUBTOTAL(101,Table18[درصد رشد نسبت به فصل قبل])</f>
-        <v>0.74584613555369572</v>
+        <v>0.72814445172136022</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -15127,10 +15112,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C8" s="80">
-        <v>35513000</v>
+        <v>17084000</v>
       </c>
       <c r="D8" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15138,15 +15123,15 @@
       </c>
       <c r="E8" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C9, "-")</f>
-        <v>0.59038768453251766</v>
+        <v>0.47967205750224617</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -15155,10 +15140,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" s="80">
-        <v>60152000</v>
+        <v>35616000</v>
       </c>
       <c r="D9" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15166,7 +15151,7 @@
       </c>
       <c r="E9" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
@@ -15174,7 +15159,7 @@
       </c>
       <c r="G9" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C10, "-")</f>
-        <v>2.0867272601123985</v>
+        <v>1.0029003463520401</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -15183,10 +15168,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C10" s="80">
-        <v>28826000</v>
+        <v>35513000</v>
       </c>
       <c r="D10" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15194,15 +15179,15 @@
       </c>
       <c r="E10" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C11, "-")</f>
-        <v>1.5393570436825803</v>
+        <v>0.75315999321343741</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -15211,10 +15196,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C11" s="80">
-        <v>18726000</v>
+        <v>47152000</v>
       </c>
       <c r="D11" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15222,15 +15207,15 @@
       </c>
       <c r="E11" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C12, "-")</f>
-        <v>0.52376610372392496</v>
+        <v>2.1603592046183451</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -15239,10 +15224,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C12" s="80">
-        <v>35752600</v>
+        <v>21826000</v>
       </c>
       <c r="D12" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
@@ -15250,7 +15235,7 @@
       </c>
       <c r="E12" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
@@ -15258,7 +15243,7 @@
       </c>
       <c r="G12" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C13, "-")</f>
-        <v>0.64116078425746426</v>
+        <v>0.4991538215249508</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -15267,26 +15252,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C13" s="80">
-        <v>55762300</v>
+        <v>43726000</v>
       </c>
       <c r="D13" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E13" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="38">
         <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C14, "-")</f>
-        <v>0.8427481160610949</v>
+        <v>1.2230159484904595</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -15295,34 +15280,84 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C14" s="80">
-        <v>66167220</v>
+        <v>35752600</v>
       </c>
       <c r="D14" s="1">
         <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E14" s="1">
         <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C15, "-")</f>
+        <v>0.64116078425746426</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <f>ROW(A14)</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="80">
+        <v>55762300</v>
+      </c>
+      <c r="D15" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1400</v>
+      </c>
+      <c r="E15" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
         <v>1</v>
       </c>
-      <c r="G14" s="38" t="str">
-        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C15, "-")</f>
+      <c r="F15" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C16, "-")</f>
+        <v>0.8427481160610949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <f>ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="80">
+        <v>66167220</v>
+      </c>
+      <c r="D16" s="1">
+        <f>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</f>
+        <v>1400</v>
+      </c>
+      <c r="E16" s="1">
+        <f>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <f>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="38" t="str">
+        <f>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C17, "-")</f>
         <v>-</v>
       </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="79"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="79"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="79"/>
@@ -15359,6 +15394,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="79"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="79"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
